--- a/assignment_2/Βιβλίο1.xlsx
+++ b/assignment_2/Βιβλίο1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Parallel-and-Distributed-Computing\assignment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A88A7F-BE1E-45B7-8B3C-F4ED51282811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D4282-C211-4FEB-8825-CF2BCA9FE737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{049306BF-BB96-4E1B-BEF7-7447B6056841}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{049306BF-BB96-4E1B-BEF7-7447B6056841}"/>
   </bookViews>
   <sheets>
     <sheet name="Askisi2" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="32">
   <si>
     <t>Column1</t>
   </si>
@@ -115,343 +115,13 @@
     <t>Threads: 10</t>
   </si>
   <si>
-    <t>0,7386433409886699</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>0,7386428608815867</t>
-  </si>
-  <si>
-    <t>0,7386443900603290</t>
-  </si>
-  <si>
-    <t>0,7386459018689836</t>
-  </si>
-  <si>
-    <t>0,7386439273782411</t>
-  </si>
-  <si>
-    <t>0,7386412065633405</t>
-  </si>
-  <si>
-    <t>0,7386441261720517</t>
-  </si>
-  <si>
-    <t>0,7386451604286053</t>
-  </si>
-  <si>
-    <t>0,7386433241006597</t>
-  </si>
-  <si>
-    <t>0,7386427021446408</t>
   </si>
   <si>
     <t>Parallel</t>
   </si>
   <si>
     <t>Threads:</t>
-  </si>
-  <si>
-    <t>0,7386418504216293</t>
-  </si>
-  <si>
-    <t>0,7386434256568574</t>
-  </si>
-  <si>
-    <t>0,7386431974942885</t>
-  </si>
-  <si>
-    <t>0,7386428395204554</t>
-  </si>
-  <si>
-    <t>0,7386447074349332</t>
-  </si>
-  <si>
-    <t>0,7386454094680540</t>
-  </si>
-  <si>
-    <t>0,7386455230331966</t>
-  </si>
-  <si>
-    <t>0,7386435169949617</t>
-  </si>
-  <si>
-    <t>0,7386449889613048</t>
-  </si>
-  <si>
-    <t>0,7386435704779369</t>
-  </si>
-  <si>
-    <t>0,7386395090324765</t>
-  </si>
-  <si>
-    <t>0,7386409814435421</t>
-  </si>
-  <si>
-    <t>0,7386396475728323</t>
-  </si>
-  <si>
-    <t>0,7386404564264749</t>
-  </si>
-  <si>
-    <t>0,7386398430841579</t>
-  </si>
-  <si>
-    <t>0,7386406738215979</t>
-  </si>
-  <si>
-    <t>0,7386428664332416</t>
-  </si>
-  <si>
-    <t>0,7386398719433305</t>
-  </si>
-  <si>
-    <t>0,7386416881518985</t>
-  </si>
-  <si>
-    <t>0,7386411527772572</t>
-  </si>
-  <si>
-    <t>0,7386378148155167</t>
-  </si>
-  <si>
-    <t>0,7386401493081132</t>
-  </si>
-  <si>
-    <t>0,7386412024094264</t>
-  </si>
-  <si>
-    <t>0,7386399015724162</t>
-  </si>
-  <si>
-    <t>0,7386413799856617</t>
-  </si>
-  <si>
-    <t>0,7386413244733564</t>
-  </si>
-  <si>
-    <t>0,7386408144265443</t>
-  </si>
-  <si>
-    <t>0,7386400696327362</t>
-  </si>
-  <si>
-    <t>0,7386402736420604</t>
-  </si>
-  <si>
-    <t>0,7386399049518927</t>
-  </si>
-  <si>
-    <t>0,7386411030788819</t>
-  </si>
-  <si>
-    <t>0,7386438257837372</t>
-  </si>
-  <si>
-    <t>0,7386411010479061</t>
-  </si>
-  <si>
-    <t>0,7386411879561045</t>
-  </si>
-  <si>
-    <t>0,7386424803921665</t>
-  </si>
-  <si>
-    <t>0,7386432757578248</t>
-  </si>
-  <si>
-    <t>0,7386413933579422</t>
-  </si>
-  <si>
-    <t>0,7386430609553108</t>
-  </si>
-  <si>
-    <t>0,7386426838895136</t>
-  </si>
-  <si>
-    <t>0,7386413569187352</t>
-  </si>
-  <si>
-    <t>0,7386442700013638</t>
-  </si>
-  <si>
-    <t>0,7386434469553701</t>
-  </si>
-  <si>
-    <t>0,7386440843209934</t>
-  </si>
-  <si>
-    <t>0,7386421755970416</t>
-  </si>
-  <si>
-    <t>0,7386428857160451</t>
-  </si>
-  <si>
-    <t>0,7386432460561401</t>
-  </si>
-  <si>
-    <t>0,7386431187936956</t>
-  </si>
-  <si>
-    <t>0,7386421318236556</t>
-  </si>
-  <si>
-    <t>0,7386427862429324</t>
-  </si>
-  <si>
-    <t>0,7386414189536479</t>
-  </si>
-  <si>
-    <t>0,7386457794689716</t>
-  </si>
-  <si>
-    <t>0,7386444094923075</t>
-  </si>
-  <si>
-    <t>0,7386424986193317</t>
-  </si>
-  <si>
-    <t>0,7386441915362582</t>
-  </si>
-  <si>
-    <t>0,7386426997193873</t>
-  </si>
-  <si>
-    <t>0,7386423955491330</t>
-  </si>
-  <si>
-    <t>0,7386425076321319</t>
-  </si>
-  <si>
-    <t>0,7386431068710624</t>
-  </si>
-  <si>
-    <t>0,7386422278529799</t>
-  </si>
-  <si>
-    <t>0,7386427060185290</t>
-  </si>
-  <si>
-    <t>0,7386442813630987</t>
-  </si>
-  <si>
-    <t>0,7386450369274957</t>
-  </si>
-  <si>
-    <t>0,7386430284034518</t>
-  </si>
-  <si>
-    <t>0,7386443569636586</t>
-  </si>
-  <si>
-    <t>0,7386428300281773</t>
-  </si>
-  <si>
-    <t>0,7386448656400573</t>
-  </si>
-  <si>
-    <t>0,7386430355951132</t>
-  </si>
-  <si>
-    <t>0,7386431052491400</t>
-  </si>
-  <si>
-    <t>0,7386430933585100</t>
-  </si>
-  <si>
-    <t>0,7386450731611576</t>
-  </si>
-  <si>
-    <t>0,7386437452743089</t>
-  </si>
-  <si>
-    <t>0,7386441506428285</t>
-  </si>
-  <si>
-    <t>0,7386442335663302</t>
-  </si>
-  <si>
-    <t>0,7386450921907010</t>
-  </si>
-  <si>
-    <t>0,7386435530567732</t>
-  </si>
-  <si>
-    <t>0,7386437566937700</t>
-  </si>
-  <si>
-    <t>0,7386444131270758</t>
-  </si>
-  <si>
-    <t>0,7386435217645980</t>
-  </si>
-  <si>
-    <t>0,7386444398272329</t>
-  </si>
-  <si>
-    <t>0,7386428855260013</t>
-  </si>
-  <si>
-    <t>0,7386449879105487</t>
-  </si>
-  <si>
-    <t>0,7386446727362787</t>
-  </si>
-  <si>
-    <t>0,7386438410668330</t>
-  </si>
-  <si>
-    <t>0,7386437849245236</t>
-  </si>
-  <si>
-    <t>0,7386438372299746</t>
-  </si>
-  <si>
-    <t>0,7386431327388578</t>
-  </si>
-  <si>
-    <t>0,7386460023238423</t>
-  </si>
-  <si>
-    <t>0,7386434584743148</t>
-  </si>
-  <si>
-    <t>0,7386442787220751</t>
-  </si>
-  <si>
-    <t>0,7386461220501371</t>
-  </si>
-  <si>
-    <t>0,7386431552519546</t>
-  </si>
-  <si>
-    <t>0,7386444618289514</t>
-  </si>
-  <si>
-    <t>0,7386448835616114</t>
-  </si>
-  <si>
-    <t>0,7386438168533160</t>
-  </si>
-  <si>
-    <t>0,7386427649938679</t>
-  </si>
-  <si>
-    <t>0,7386437603975888</t>
-  </si>
-  <si>
-    <t>0,7386439946953595</t>
-  </si>
-  <si>
-    <t>0,7386439346930088</t>
-  </si>
-  <si>
-    <t>0,7386430215891567</t>
-  </si>
-  <si>
-    <t>0,7386436778225040</t>
   </si>
   <si>
     <t>Στήλη1</t>
@@ -473,9 +143,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,7 +268,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -613,13 +279,7 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -3433,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4DFD3A-CF26-4F0F-BD34-21637822585F}">
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P206" sqref="P206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5181,44 +4841,44 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f>A38/A60</f>
-        <v>1.2606875934230195</v>
-      </c>
-      <c r="B61" s="3">
-        <f t="shared" ref="B61:J61" si="4">B38/B60</f>
-        <v>1.1354627173592691</v>
-      </c>
-      <c r="C61" s="3">
+        <f>A18/A60</f>
+        <v>1.0840059790732437</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:J61" si="4">B18/B60</f>
+        <v>0.30153993516062483</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="4"/>
-        <v>1.0097629009762901</v>
-      </c>
-      <c r="D61" s="3">
+        <v>0.26566576421363525</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="4"/>
-        <v>1.4820294470186235</v>
-      </c>
-      <c r="E61" s="3">
+        <v>0.55460937080702011</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="4"/>
-        <v>1.1690924339416329</v>
-      </c>
-      <c r="F61" s="3">
+        <v>0.81970763400108282</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="4"/>
-        <v>1.1260789653480114</v>
-      </c>
-      <c r="G61" s="3">
+        <v>0.99431768973912371</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="4"/>
-        <v>0.78698350495524094</v>
-      </c>
-      <c r="H61" s="3">
+        <v>1.1592783050006517</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="4"/>
-        <v>1.1205363103100543</v>
-      </c>
-      <c r="I61" s="3">
+        <v>1.614184669138012</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="4"/>
-        <v>1.0601514485832413</v>
-      </c>
-      <c r="J61" s="3">
+        <v>0.94183248788062524</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="4"/>
-        <v>1.4380844377883775</v>
+        <v>1.1910353330802268</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -5782,44 +5442,44 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>A60/A82</f>
-        <v>0.63532763532763536</v>
-      </c>
-      <c r="B83" s="3">
-        <f t="shared" ref="B83:J83" si="6">B60/B82</f>
-        <v>0.79924621635946058</v>
-      </c>
-      <c r="C83" s="3">
+        <f>A18/A82</f>
+        <v>0.68869895536562198</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:J83" si="6">B18/B82</f>
+        <v>0.24100465225840645</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="6"/>
-        <v>1.3846415994547314</v>
-      </c>
-      <c r="D83" s="3">
+        <v>0.36785186868113146</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="6"/>
-        <v>0.48769358286437203</v>
-      </c>
-      <c r="E83" s="3">
+        <v>0.27047943113903067</v>
+      </c>
+      <c r="E83">
         <f t="shared" si="6"/>
-        <v>0.90460093536026731</v>
-      </c>
-      <c r="F83" s="3">
+        <v>0.74150829243933125</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="6"/>
-        <v>1.0397358613271968</v>
-      </c>
-      <c r="G83" s="3">
+        <v>1.0338277595737762</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="6"/>
-        <v>1.3509710695682304</v>
-      </c>
-      <c r="H83" s="3">
+        <v>1.5661514516339758</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="6"/>
-        <v>1.0136118569279384</v>
-      </c>
-      <c r="I83" s="3">
+        <v>1.6361567199095901</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="6"/>
-        <v>1.3750891263915979</v>
-      </c>
-      <c r="J83" s="3">
+        <v>1.2951036129669939</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="6"/>
-        <v>1.1524321504767958</v>
+        <v>1.3725874101954927</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6383,44 +6043,44 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f>A82/A104</f>
-        <v>0.13882297104888466</v>
-      </c>
-      <c r="B105" s="3">
-        <f t="shared" ref="B105:J105" si="8">B82/B104</f>
-        <v>0.71787609122999851</v>
-      </c>
-      <c r="C105" s="3">
+        <f>A18/A104</f>
+        <v>9.5607235142118857E-2</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105:J105" si="8">B18/B104</f>
+        <v>0.17301147773150985</v>
+      </c>
+      <c r="C105">
         <f t="shared" si="8"/>
-        <v>0.75800368539790242</v>
-      </c>
-      <c r="D105" s="3">
+        <v>0.27883307214080288</v>
+      </c>
+      <c r="D105">
         <f t="shared" si="8"/>
-        <v>0.63096961722883138</v>
-      </c>
-      <c r="E105" s="3">
+        <v>0.17066430313406625</v>
+      </c>
+      <c r="E105">
         <f t="shared" si="8"/>
-        <v>0.87829050024881705</v>
-      </c>
-      <c r="F105" s="3">
+        <v>0.65125968910518639</v>
+      </c>
+      <c r="F105">
         <f t="shared" si="8"/>
-        <v>1.0148911972867862</v>
-      </c>
-      <c r="G105" s="3">
+        <v>1.0492226927021455</v>
+      </c>
+      <c r="G105">
         <f t="shared" si="8"/>
-        <v>0.85021105197577496</v>
-      </c>
-      <c r="H105" s="3">
+        <v>1.3315592732471095</v>
+      </c>
+      <c r="H105">
         <f t="shared" si="8"/>
-        <v>0.85972842278020711</v>
-      </c>
-      <c r="I105" s="3">
+        <v>1.406650436229109</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="8"/>
-        <v>0.68778951949170231</v>
-      </c>
-      <c r="J105" s="3">
+        <v>0.89075869165453636</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="8"/>
-        <v>0.79509113831734568</v>
+        <v>1.0913320864123919</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -6984,44 +6644,44 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f>A104/A127</f>
-        <v>7.8004936240230354</v>
-      </c>
-      <c r="B128" s="2">
-        <f t="shared" ref="B128:J128" si="10">B104/B127</f>
-        <v>0.80337250373590541</v>
-      </c>
-      <c r="C128" s="2">
+        <f>A18/A127</f>
+        <v>0.74578362813656929</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ref="B128:J128" si="10">B18/B127</f>
+        <v>0.13899266404021193</v>
+      </c>
+      <c r="C128">
         <f t="shared" si="10"/>
-        <v>0.85316113486431289</v>
-      </c>
-      <c r="D128" s="2">
+        <v>0.2378895402653502</v>
+      </c>
+      <c r="D128">
         <f t="shared" si="10"/>
-        <v>1.7755979785539036</v>
-      </c>
-      <c r="E128" s="2">
+        <v>0.30303119165615866</v>
+      </c>
+      <c r="E128">
         <f t="shared" si="10"/>
-        <v>0.66423333127909778</v>
-      </c>
-      <c r="F128" s="2">
+        <v>0.43258839282212747</v>
+      </c>
+      <c r="F128">
         <f t="shared" si="10"/>
-        <v>0.90523945215552903</v>
-      </c>
-      <c r="G128" s="2">
+        <v>0.94979777553083922</v>
+      </c>
+      <c r="G128">
         <f t="shared" si="10"/>
-        <v>1.0319310643854254</v>
-      </c>
-      <c r="H128" s="2">
+        <v>1.3740773781341733</v>
+      </c>
+      <c r="H128">
         <f t="shared" si="10"/>
-        <v>1.0786591707397177</v>
-      </c>
-      <c r="I128" s="2">
+        <v>1.517296393063553</v>
+      </c>
+      <c r="I128">
         <f t="shared" si="10"/>
-        <v>1.1877155599385403</v>
-      </c>
-      <c r="J128" s="2">
+        <v>1.0579679582285892</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="10"/>
-        <v>1.093052694056303</v>
+        <v>1.1928834771631509</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -8186,44 +7846,44 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f>A150/A174</f>
-        <v>0.8785405664906385</v>
-      </c>
-      <c r="B175" s="3">
-        <f t="shared" ref="B175:J175" si="14">B150/B174</f>
-        <v>5.0076842718524617</v>
-      </c>
-      <c r="C175" s="3">
+        <f>A18/A174</f>
+        <v>4.8354403371206063E-2</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ref="B175:J175" si="14">B18/B174</f>
+        <v>8.2216686421439616E-2</v>
+      </c>
+      <c r="C175">
         <f t="shared" si="14"/>
-        <v>1.0557530402245088</v>
-      </c>
-      <c r="D175" s="3">
+        <v>0.16828811973807298</v>
+      </c>
+      <c r="D175">
         <f t="shared" si="14"/>
-        <v>1.0459848184693947</v>
-      </c>
-      <c r="E175" s="3">
+        <v>0.19496380708010239</v>
+      </c>
+      <c r="E175">
         <f t="shared" si="14"/>
-        <v>0.78987343105600527</v>
-      </c>
-      <c r="F175" s="3">
+        <v>0.40669556560990638</v>
+      </c>
+      <c r="F175">
         <f t="shared" si="14"/>
-        <v>2.0293494945217807</v>
-      </c>
-      <c r="G175" s="3">
+        <v>0.68364275128354413</v>
+      </c>
+      <c r="G175">
         <f t="shared" si="14"/>
-        <v>0.8242916347447351</v>
-      </c>
-      <c r="H175" s="3">
+        <v>1.1088120617646644</v>
+      </c>
+      <c r="H175">
         <f t="shared" si="14"/>
-        <v>0.84712672738596628</v>
-      </c>
-      <c r="I175" s="3">
+        <v>1.1680335703318185</v>
+      </c>
+      <c r="I175">
         <f t="shared" si="14"/>
-        <v>0.7358441998017512</v>
-      </c>
-      <c r="J175" s="3">
+        <v>1.1391856062491497</v>
+      </c>
+      <c r="J175">
         <f t="shared" si="14"/>
-        <v>0.90472226437824566</v>
+        <v>1.0278532850854978</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8787,44 +8447,44 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
-        <f>A174/A197</f>
-        <v>16.824770024680276</v>
-      </c>
-      <c r="B198" s="2">
-        <f t="shared" ref="B198:J198" si="16">B174/B197</f>
-        <v>11.142025741466144</v>
-      </c>
-      <c r="C198" s="2">
+        <f>A18/A197</f>
+        <v>0.81355171640116675</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ref="B198:J198" si="16">B18/B197</f>
+        <v>0.91606043648573032</v>
+      </c>
+      <c r="C198">
         <f t="shared" si="16"/>
-        <v>4.5504422267417111</v>
-      </c>
-      <c r="D198" s="2">
+        <v>0.76578536631509242</v>
+      </c>
+      <c r="D198">
         <f t="shared" si="16"/>
-        <v>2.9998868031317798</v>
-      </c>
-      <c r="E198" s="2">
+        <v>0.58486935194792944</v>
+      </c>
+      <c r="E198">
         <f t="shared" si="16"/>
-        <v>2.675059529680301</v>
-      </c>
-      <c r="F198" s="2">
+        <v>1.0879348484635003</v>
+      </c>
+      <c r="F198">
         <f t="shared" si="16"/>
-        <v>2.1059789045409576</v>
-      </c>
-      <c r="G198" s="2">
+        <v>1.4397372124454848</v>
+      </c>
+      <c r="G198">
         <f t="shared" si="16"/>
-        <v>1.530603953722427</v>
-      </c>
-      <c r="H198" s="2">
+        <v>1.6971521256721114</v>
+      </c>
+      <c r="H198">
         <f t="shared" si="16"/>
-        <v>1.2935244147246114</v>
-      </c>
-      <c r="I198" s="2">
+        <v>1.5108799404421638</v>
+      </c>
+      <c r="I198">
         <f t="shared" si="16"/>
-        <v>0.95269517761155875</v>
-      </c>
-      <c r="J198" s="2">
+        <v>1.0852966334780649</v>
+      </c>
+      <c r="J198">
         <f t="shared" si="16"/>
-        <v>1.1297074489440861</v>
+        <v>1.161173512582736</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9388,44 +9048,44 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
-        <f>A197/A219</f>
-        <v>0.64463407578825571</v>
-      </c>
-      <c r="B220" s="2">
-        <f t="shared" ref="B220:J220" si="18">B197/B219</f>
-        <v>0.86722313889158498</v>
-      </c>
-      <c r="C220" s="2">
+        <f>A18/A219</f>
+        <v>0.52444315880821524</v>
+      </c>
+      <c r="B220">
+        <f t="shared" ref="B220:J220" si="18">B18/B219</f>
+        <v>0.79442880714355046</v>
+      </c>
+      <c r="C220">
         <f t="shared" si="18"/>
-        <v>1.1455895101863893</v>
-      </c>
-      <c r="D220" s="2">
+        <v>0.87727568270481149</v>
+      </c>
+      <c r="D220">
         <f t="shared" si="18"/>
-        <v>0.79687593962354919</v>
-      </c>
-      <c r="E220" s="2">
+        <v>0.4660683143905226</v>
+      </c>
+      <c r="E220">
         <f t="shared" si="18"/>
-        <v>0.47409203556374957</v>
-      </c>
-      <c r="F220" s="2">
+        <v>0.51578124686880022</v>
+      </c>
+      <c r="F220">
         <f t="shared" si="18"/>
-        <v>0.85665687889422049</v>
-      </c>
-      <c r="G220" s="2">
+        <v>1.2333607868414143</v>
+      </c>
+      <c r="G220">
         <f t="shared" si="18"/>
-        <v>0.72035038787876104</v>
-      </c>
-      <c r="H220" s="2">
+        <v>1.2225441920171691</v>
+      </c>
+      <c r="H220">
         <f t="shared" si="18"/>
-        <v>1.0265238668402537</v>
-      </c>
-      <c r="I220" s="2">
+        <v>1.550954318794062</v>
+      </c>
+      <c r="I220">
         <f t="shared" si="18"/>
-        <v>0.98913883996038465</v>
-      </c>
-      <c r="J220" s="2">
+        <v>1.073509053051404</v>
+      </c>
+      <c r="J220">
         <f t="shared" si="18"/>
-        <v>1.22883314112464</v>
+        <v>1.4268884948577754</v>
       </c>
     </row>
   </sheetData>
@@ -9437,10 +9097,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9564F561-C8B0-4584-A40B-CDC76A8EF9EA}">
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9448,59 +9108,58 @@
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="10"/>
+    <col min="10" max="10" width="8.88671875" style="9"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="15" max="15" width="8.88671875" style="9"/>
     <col min="16" max="16" width="11.77734375" customWidth="1"/>
     <col min="17" max="17" width="17.109375" customWidth="1"/>
     <col min="18" max="18" width="13.5546875" customWidth="1"/>
     <col min="19" max="19" width="13.21875" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="G1">
         <v>1672417847</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="L1">
         <v>1672420074</v>
       </c>
       <c r="P1" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="Q1">
         <v>1672503689</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
+      <c r="A2" s="20">
+        <v>0.73864334098866902</v>
       </c>
       <c r="B2" s="8">
         <v>3.429518E-7</v>
@@ -9511,49 +9170,49 @@
       <c r="D2" s="8">
         <v>143.340284</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>146.23602399999999</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>132.29046700000001</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="13">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="14">
         <v>1.205732E-6</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="14">
         <v>1.632362E-6</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="15">
         <v>139.024429</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
+      <c r="A3" s="20">
+        <v>0.73864286088158604</v>
       </c>
       <c r="B3" s="8">
         <v>1.3715529999999999E-7</v>
@@ -9564,49 +9223,49 @@
       <c r="D3" s="8">
         <v>146.76380599999999</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>136.38402600000001</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>141.16515899999999</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="10">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="11">
         <v>1.205732E-6</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="11">
         <v>1.632362E-6</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="12">
         <v>144.027187</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
+      <c r="A4" s="20">
+        <v>0.738644390060329</v>
       </c>
       <c r="B4" s="8">
         <v>1.392023E-6</v>
@@ -9617,49 +9276,49 @@
       <c r="D4" s="8">
         <v>140.96414899999999</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>144.244201</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="15">
         <v>144.95430400000001</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="13">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="14">
         <v>1.205732E-6</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="14">
         <v>1.632362E-6</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="15">
         <v>146.318781</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>28</v>
+      <c r="A5" s="20">
+        <v>0.73864590186898305</v>
       </c>
       <c r="B5" s="8">
         <v>2.9038320000000001E-6</v>
@@ -9670,49 +9329,49 @@
       <c r="D5" s="8">
         <v>142.69904399999999</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>142.192373</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>148.328338</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="10">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="11">
         <v>1.205732E-6</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="11">
         <v>1.632362E-6</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="12">
         <v>151.70315199999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>29</v>
+      <c r="A6" s="20">
+        <v>0.73864392737824103</v>
       </c>
       <c r="B6" s="8">
         <v>9.2934139999999998E-7</v>
@@ -9723,49 +9382,49 @@
       <c r="D6" s="8">
         <v>142.45821799999999</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>143.01000199999999</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <v>140.58020400000001</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="13">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="14">
         <v>1.205732E-6</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="14">
         <v>1.632362E-6</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="15">
         <v>146.66804300000001</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>30</v>
+      <c r="A7" s="20">
+        <v>0.73864120656333998</v>
       </c>
       <c r="B7" s="8">
         <v>1.791474E-6</v>
@@ -9776,49 +9435,49 @@
       <c r="D7" s="8">
         <v>135.48926700000001</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>144.20280299999999</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>132.95028099999999</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="10">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="11">
         <v>1.205732E-6</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="11">
         <v>1.632362E-6</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="12">
         <v>166.859297</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>31</v>
+      <c r="A8" s="20">
+        <v>0.738644126172051</v>
       </c>
       <c r="B8" s="8">
         <v>1.128135E-6</v>
@@ -9829,49 +9488,49 @@
       <c r="D8" s="8">
         <v>140.483495</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>145.27550500000001</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <v>139.319726</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="13">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8" s="14">
         <v>1.205732E-6</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="14">
         <v>1.632362E-6</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="15">
         <v>142.057571</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
+      <c r="A9" s="20">
+        <v>0.73864516042860495</v>
       </c>
       <c r="B9" s="8">
         <v>2.162392E-6</v>
@@ -9882,49 +9541,49 @@
       <c r="D9" s="8">
         <v>167.067894</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>143.50125299999999</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>149.13478799999999</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="10">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="11">
         <v>1.205732E-6</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="11">
         <v>1.632362E-6</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="12">
         <v>138.07416699999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>33</v>
+      <c r="A10" s="20">
+        <v>0.73864332410065903</v>
       </c>
       <c r="B10" s="8">
         <v>3.2606380000000002E-7</v>
@@ -9935,49 +9594,49 @@
       <c r="D10" s="8">
         <v>171.144228</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>149.58334099999999</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>120.73661800000001</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="13">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10" s="14">
         <v>1.205732E-6</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="14">
         <v>1.632362E-6</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="15">
         <v>187.903865</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>34</v>
+      <c r="A11" s="20">
+        <v>0.73864270214464001</v>
       </c>
       <c r="B11" s="8">
         <v>2.9589220000000002E-7</v>
@@ -9988,43 +9647,43 @@
       <c r="D11" s="8">
         <v>176.88054700000001</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10">
         <v>0.73864271746422661</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>135.80175800000001</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>0.73864269951032069</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>136.05847800000001</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="10">
         <v>0.73864179230446536</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="11">
         <v>1.205732E-6</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="11">
         <v>1.632362E-6</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="12">
         <v>174.99516299999999</v>
       </c>
     </row>
@@ -10042,77 +9701,77 @@
         <f>MEDIAN(D2:D11)</f>
         <v>143.01966399999998</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <f>MEDIAN(G2:G11)</f>
         <v>2.8057269999999998E-7</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f>MEDIAN(H2:H11)</f>
         <v>3.7984879999999999E-7</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f>MEDIAN(I2:I11)</f>
         <v>143.85202799999999</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <f>MEDIAN(L2:L11)</f>
         <v>2.9852660000000002E-7</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <f>MEDIAN(M2:M11)</f>
         <v>4.0415539999999998E-7</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f>MEDIAN(N2:N11)</f>
         <v>139.94996500000002</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <f>MEDIAN(Q2:Q11)</f>
         <v>1.205732E-6</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="16">
         <f>MEDIAN(R2:R11)</f>
         <v>1.632362E-6</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <f>MEDIAN(S2:S11)</f>
         <v>146.49341200000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>25</v>
+      <c r="E15" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
+      <c r="A16" s="20">
+        <v>0.738641850421629</v>
       </c>
       <c r="B16">
         <v>1.147615E-6</v>
@@ -10123,49 +9782,49 @@
       <c r="D16">
         <v>176.560811</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="13">
         <v>0.73864527269891744</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <v>2.2746619999999998E-6</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>3.0795150000000001E-6</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>141.78061400000001</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>0.73864345261127939</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>4.545744E-7</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>6.1541829999999996E-7</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>129.099536</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="13">
         <v>0.73864411264165986</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16" s="14">
         <v>1.114605E-6</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16" s="14">
         <v>1.50899E-6</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="15">
         <v>164.37079700000001</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
+      <c r="A17" s="20">
+        <v>0.73864342565685703</v>
       </c>
       <c r="B17">
         <v>4.2762000000000001E-7</v>
@@ -10176,49 +9835,49 @@
       <c r="D17">
         <v>177.42866900000001</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10">
         <v>0.73864311645141489</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>1.184145E-7</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>1.6031359999999999E-7</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>138.466847</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>0.73864201425165255</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>9.837851999999999E-7</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>1.331882E-6</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="15">
         <v>131.949656</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="10">
         <v>0.73864286191199213</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="11">
         <v>1.3612489999999999E-7</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="11">
         <v>1.8429050000000001E-7</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="12">
         <v>148.025533</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
+      <c r="A18" s="20">
+        <v>0.73864319749428797</v>
       </c>
       <c r="B18">
         <v>1.9945740000000001E-7</v>
@@ -10229,49 +9888,49 @@
       <c r="D18">
         <v>155.13054500000001</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.738645310718966</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>2.3126819999999998E-6</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>3.1309879999999998E-6</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>133.04135600000001</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>0.7386422757378529</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>7.2229900000000003E-7</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>9.7787300000000009E-7</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>127.486424</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="13">
         <v>0.73864500577563186</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="14">
         <v>2.0077389999999999E-6</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="14">
         <v>2.718145E-6</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="15">
         <v>151.232136</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
+      <c r="A19" s="20">
+        <v>0.73864283952045495</v>
       </c>
       <c r="B19">
         <v>1.5851640000000001E-7</v>
@@ -10282,49 +9941,49 @@
       <c r="D19">
         <v>182.42106200000001</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10">
         <v>0.73864252472246084</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>4.7331440000000002E-7</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>6.4078919999999997E-7</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>133.27697599999999</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>0.7386458037248913</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>2.8056880000000002E-6</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <v>3.7984360000000001E-6</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="15">
         <v>135.96868499999999</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="10">
         <v>0.73864568665146646</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="11">
         <v>2.6886150000000002E-6</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="11">
         <v>3.6399379999999999E-6</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="12">
         <v>160.112945</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
+      <c r="A20" s="20">
+        <v>0.73864470743493305</v>
       </c>
       <c r="B20">
         <v>1.709398E-6</v>
@@ -10335,49 +9994,49 @@
       <c r="D20">
         <v>164.60083</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="13">
         <v>0.73864071169751733</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <v>2.286339E-6</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>3.0953240000000001E-6</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>149.27499900000001</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>0.73864432421321424</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>1.3261760000000001E-6</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>1.795423E-6</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>138.03036</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="13">
         <v>0.73864314420395638</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20" s="14">
         <v>1.4616710000000001E-7</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="14">
         <v>1.9788590000000001E-7</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="15">
         <v>168.278584</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
+      <c r="A21" s="20">
+        <v>0.73864540946805402</v>
       </c>
       <c r="B21">
         <v>2.4114310000000001E-6</v>
@@ -10388,49 +10047,49 @@
       <c r="D21">
         <v>161.59125499999999</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="10">
         <v>0.73864337832024751</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>3.8028340000000001E-7</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>5.1484049999999998E-7</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>159.07278600000001</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>0.73864284068960473</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>1.5734729999999999E-7</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>2.1302210000000001E-7</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="15">
         <v>130.78878499999999</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="10">
         <v>0.73864321473390582</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="11">
         <v>2.16697E-7</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="11">
         <v>2.933718E-7</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="12">
         <v>190.25425300000001</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
+      <c r="A22" s="20">
+        <v>0.73864552303319597</v>
       </c>
       <c r="B22">
         <v>2.5249959999999999E-6</v>
@@ -10441,49 +10100,49 @@
       <c r="D22">
         <v>166.91462300000001</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="13">
         <v>0.73864329076651103</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>2.9272959999999998E-7</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>3.9630729999999998E-7</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>176.33734899999999</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>0.73864310609293382</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>1.08056E-7</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <v>1.462899E-7</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <v>138.41071199999999</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="13">
         <v>0.73864407855952963</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22" s="14">
         <v>1.0805230000000001E-6</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="14">
         <v>1.4628480000000001E-6</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="15">
         <v>175.39852999999999</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
+      <c r="A23" s="20">
+        <v>0.738643516994961</v>
       </c>
       <c r="B23">
         <v>5.1895809999999997E-7</v>
@@ -10494,49 +10153,49 @@
       <c r="D23">
         <v>195.201673</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10">
         <v>0.73864315398759983</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>1.5595069999999999E-7</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>2.1113140000000001E-7</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="12">
         <v>183.22789599999999</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>0.73864266235253306</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>3.3568440000000003E-7</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="14">
         <v>4.5446089999999999E-7</v>
       </c>
-      <c r="N23" s="16">
+      <c r="N23" s="15">
         <v>124.36418399999999</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="10">
         <v>0.73864068720727971</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="11">
         <v>2.3108299999999999E-6</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="11">
         <v>3.1284800000000001E-6</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="12">
         <v>158.60443000000001</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
+      <c r="A24" s="20">
+        <v>0.73864498896130404</v>
       </c>
       <c r="B24">
         <v>1.9909240000000001E-6</v>
@@ -10547,49 +10206,49 @@
       <c r="D24">
         <v>161.303988</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="13">
         <v>0.73864375985004527</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>7.6181319999999998E-7</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>1.031369E-6</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="15">
         <v>174.476879</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>0.73864372420985358</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>7.2617300000000003E-7</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>9.8311760000000006E-7</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="12">
         <v>140.380709</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="13">
         <v>0.73864327413038311</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="14">
         <v>2.7609350000000002E-7</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24" s="14">
         <v>3.737848E-7</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="15">
         <v>183.11168900000001</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
+      <c r="A25" s="20">
+        <v>0.73864357047793605</v>
       </c>
       <c r="B25">
         <v>5.7244099999999998E-7</v>
@@ -10600,43 +10259,43 @@
       <c r="D25">
         <v>199.62794199999999</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10">
         <v>0.73864335960608962</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>3.6156919999999998E-7</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>4.8950470000000004E-7</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>179.32277500000001</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>0.73864568520873042</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>2.6871719999999999E-6</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>3.6379849999999999E-6</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="15">
         <v>125.63073799999999</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="10">
         <v>0.73864347749583692</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="11">
         <v>4.7945890000000001E-7</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="11">
         <v>6.4910779999999998E-7</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="12">
         <v>147.92259999999999</v>
       </c>
     </row>
@@ -10654,63 +10313,63 @@
         <f>MEDIAN(D16:D25)</f>
         <v>171.737717</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <f>MEDIAN(G16:G25)</f>
         <v>4.2679890000000002E-7</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <f>MEDIAN(H16:H25)</f>
         <v>5.7781484999999997E-7</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <f>MEDIAN(I16:I25)</f>
         <v>154.17389250000002</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <f>MEDIAN(L16:L25)</f>
         <v>7.2423600000000003E-7</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <f>MEDIAN(M16:M25)</f>
         <v>9.8049530000000008E-7</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="17">
         <f>MEDIAN(N16:N25)</f>
         <v>131.36922049999998</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="16">
         <f>MEDIAN(Q16:Q25)</f>
         <v>7.7999095000000004E-7</v>
       </c>
-      <c r="R26" s="17">
+      <c r="R26" s="16">
         <f>MEDIAN(R16:R25)</f>
         <v>1.0559779E-6</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="17">
         <f>MEDIAN(S16:S25)</f>
         <v>162.241871</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>25</v>
+      <c r="E28" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>47</v>
+      <c r="A29" s="20">
+        <v>0.73863950903247599</v>
       </c>
       <c r="B29">
         <v>3.4890040000000001E-6</v>
@@ -10721,49 +10380,49 @@
       <c r="D29">
         <v>115.10289</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="10">
         <v>0.73864119673853901</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>1.801298E-6</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>2.438659E-6</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <v>109.64757899999999</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>0.73864070700512086</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>2.2910320000000002E-6</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>3.1016769999999999E-6</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="15">
         <v>69.794165000000007</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="10">
         <v>0.73864054683460634</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="11">
         <v>2.451202E-6</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="11">
         <v>3.318521E-6</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="12">
         <v>83.585676000000007</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>48</v>
+      <c r="A30" s="20">
+        <v>0.73864098144354196</v>
       </c>
       <c r="B30">
         <v>2.0165929999999999E-6</v>
@@ -10774,49 +10433,49 @@
       <c r="D30">
         <v>108.283187</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="E30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="13">
         <v>0.73864071019549993</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>2.287841E-6</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>3.0973570000000001E-6</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>106.32865700000001</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>0.73863992543268031</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <v>3.0726040000000001E-6</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <v>4.1597960000000003E-6</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <v>78.499594999999999</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="13">
         <v>0.73864065646628063</v>
       </c>
-      <c r="Q30" s="25">
+      <c r="Q30" s="14">
         <v>2.341571E-6</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="14">
         <v>3.1700979999999999E-6</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="15">
         <v>78.717207999999999</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>49</v>
+      <c r="A31" s="20">
+        <v>0.73863964757283196</v>
       </c>
       <c r="B31">
         <v>3.3504639999999998E-6</v>
@@ -10827,49 +10486,49 @@
       <c r="D31">
         <v>101.508368</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="10">
         <v>0.7386440292216524</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>1.031185E-6</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>1.396053E-6</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>75.020178000000001</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>0.73864071270928766</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>2.2853279999999999E-6</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>3.0939539999999999E-6</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="15">
         <v>72.383457000000007</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="10">
         <v>0.73863982151174645</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="11">
         <v>3.1765250000000001E-6</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="11">
         <v>4.3004880000000003E-6</v>
       </c>
-      <c r="S31" s="23">
+      <c r="S31" s="12">
         <v>89.116562999999999</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>50</v>
+      <c r="A32" s="20">
+        <v>0.73864045642647402</v>
       </c>
       <c r="B32">
         <v>2.5416099999999998E-6</v>
@@ -10880,49 +10539,49 @@
       <c r="D32">
         <v>121.83110600000001</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="14">
+      <c r="E32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="13">
         <v>0.73864041262052693</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <v>2.5854159999999999E-6</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>3.500225E-6</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <v>78.939734000000001</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>0.73864062941124919</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>2.3686259999999999E-6</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <v>3.206726E-6</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="12">
         <v>79.004091000000003</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="13">
         <v>0.73864300574575426</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="14">
         <v>7.7088639999999994E-9</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="14">
         <v>1.043652E-8</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="15">
         <v>81.410623000000001</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>51</v>
+      <c r="A33" s="20">
+        <v>0.73863984308415698</v>
       </c>
       <c r="B33">
         <v>3.154953E-6</v>
@@ -10933,49 +10592,49 @@
       <c r="D33">
         <v>108.514691</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="10">
         <v>0.73864164357427164</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>1.3544629999999999E-6</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>1.833718E-6</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="12">
         <v>82.930504999999997</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>0.7386402532614984</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>2.7447749999999999E-6</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="14">
         <v>3.7159700000000001E-6</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <v>74.490962999999994</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="10">
         <v>0.73864271062302034</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="11">
         <v>2.8741390000000002E-7</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="11">
         <v>3.8911070000000002E-7</v>
       </c>
-      <c r="S33" s="23">
+      <c r="S33" s="12">
         <v>80.146107000000001</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
+      <c r="A34" s="20">
+        <v>0.73864067382159704</v>
       </c>
       <c r="B34">
         <v>2.3242149999999999E-6</v>
@@ -10986,49 +10645,49 @@
       <c r="D34">
         <v>122.73422100000001</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="14">
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="13">
         <v>0.73864053146889408</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>2.4665680000000002E-6</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>3.3393240000000002E-6</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>76.062551999999997</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>0.73863981110681975</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>3.1869299999999999E-6</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <v>4.3145739999999999E-6</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="12">
         <v>78.911383000000001</v>
       </c>
-      <c r="P34" s="24">
+      <c r="P34" s="13">
         <v>0.73864143510284364</v>
       </c>
-      <c r="Q34" s="25">
+      <c r="Q34" s="14">
         <v>1.562934E-6</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="14">
         <v>2.1159529999999999E-6</v>
       </c>
-      <c r="S34" s="26">
+      <c r="S34" s="15">
         <v>65.435505000000006</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>53</v>
+      <c r="A35" s="20">
+        <v>0.73864286643324095</v>
       </c>
       <c r="B35">
         <v>1.316036E-7</v>
@@ -11039,49 +10698,49 @@
       <c r="D35">
         <v>101.408316</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="11">
+      <c r="E35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10">
         <v>0.73864207730841913</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>9.2072849999999997E-7</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>1.246514E-6</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="12">
         <v>76.367574000000005</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <v>0.73864037580662611</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <v>2.62223E-6</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="14">
         <v>3.550064E-6</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <v>80.170759000000004</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="10">
         <v>0.73863951971219222</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="11">
         <v>3.4783249999999999E-6</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="11">
         <v>4.7090740000000001E-6</v>
       </c>
-      <c r="S35" s="23">
+      <c r="S35" s="12">
         <v>78.571689000000006</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>54</v>
+      <c r="A36" s="20">
+        <v>0.73863987194333003</v>
       </c>
       <c r="B36">
         <v>3.1260939999999999E-6</v>
@@ -11092,49 +10751,49 @@
       <c r="D36">
         <v>92.767246</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="14">
+      <c r="E36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="13">
         <v>0.73864228135511778</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>7.166818E-7</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>9.7026809999999996E-7</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <v>75.156612999999993</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>0.73864012682717806</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>2.87121E-6</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <v>3.8871410000000001E-6</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="12">
         <v>74.217799999999997</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P36" s="13">
         <v>0.73864111476340788</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="14">
         <v>1.8832729999999999E-6</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="14">
         <v>2.54964E-6</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="15">
         <v>61.140833000000001</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>55</v>
+      <c r="A37" s="20">
+        <v>0.73864168815189801</v>
       </c>
       <c r="B37">
         <v>1.309885E-6</v>
@@ -11145,49 +10804,49 @@
       <c r="D37">
         <v>95.787180000000006</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="10">
         <v>0.73864017220870637</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>2.825828E-6</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>3.8257020000000001E-6</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <v>75.692132999999998</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>0.73864023192871398</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="14">
         <v>2.7661079999999999E-6</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="14">
         <v>3.7448510000000001E-6</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="15">
         <v>80.062207999999998</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="10">
         <v>0.73864024696766528</v>
       </c>
-      <c r="Q37" s="22">
+      <c r="Q37" s="11">
         <v>2.751069E-6</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="11">
         <v>3.724491E-6</v>
       </c>
-      <c r="S37" s="23">
+      <c r="S37" s="12">
         <v>63.322865999999998</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>56</v>
+      <c r="A38" s="20">
+        <v>0.73864115277725695</v>
       </c>
       <c r="B38">
         <v>1.8452600000000001E-6</v>
@@ -11198,43 +10857,43 @@
       <c r="D38">
         <v>71.758257999999998</v>
       </c>
-      <c r="E38" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="14">
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="13">
         <v>0.73864132231538104</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>1.6757220000000001E-6</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="14">
         <v>2.2686490000000001E-6</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="15">
         <v>74.091621000000004</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>0.73863978309146683</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>3.2149450000000001E-6</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <v>4.3525019999999999E-6</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <v>84.479721999999995</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="13">
         <v>0.7386403834879135</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="Q38" s="14">
         <v>2.614549E-6</v>
       </c>
-      <c r="R38" s="25">
+      <c r="R38" s="14">
         <v>3.5396649999999998E-6</v>
       </c>
-      <c r="S38" s="26">
+      <c r="S38" s="15">
         <v>66.968324999999993</v>
       </c>
     </row>
@@ -11251,63 +10910,63 @@
         <f>MEDIAN(D29:D38)</f>
         <v>104.89577750000001</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="18">
         <f>MEDIAN(G29:G38)</f>
         <v>1.73851E-6</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="18">
         <f>MEDIAN(H29:H38)</f>
         <v>2.353654E-6</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <f>MEDIAN(I29:I38)</f>
         <v>76.215063000000001</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="18">
         <f>MEDIAN(L29:L38)</f>
         <v>2.7554415000000001E-6</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="18">
         <f>MEDIAN(M29:M38)</f>
         <v>3.7304105000000003E-6</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="19">
         <f>MEDIAN(N29:N38)</f>
         <v>78.705489</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="18">
         <f>MEDIAN(Q29:Q38)</f>
         <v>2.3963865000000002E-6</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="18">
         <f>MEDIAN(R29:R38)</f>
         <v>3.2443094999999997E-6</v>
       </c>
-      <c r="S39" s="20">
+      <c r="S39" s="19">
         <f>MEDIAN(S29:S38)</f>
         <v>78.64444850000001</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>25</v>
+      <c r="E41" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>57</v>
+      <c r="A42" s="20">
+        <v>0.73863781481551605</v>
       </c>
       <c r="B42">
         <v>5.1832209999999997E-6</v>
@@ -11318,49 +10977,49 @@
       <c r="D42">
         <v>41.997399000000001</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42" s="14">
+      <c r="E42" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="13">
         <v>0.7386404181974483</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>2.5798389999999999E-6</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="14">
         <v>3.4926740000000002E-6</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="15">
         <v>53.825955999999998</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <v>0.7386397284137195</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>3.269623E-6</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>4.4265270000000004E-6</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="12">
         <v>39.923143000000003</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="13">
         <v>0.7386410449518751</v>
       </c>
-      <c r="Q42" s="25">
+      <c r="Q42" s="14">
         <v>1.9530850000000002E-6</v>
       </c>
-      <c r="R42" s="25">
+      <c r="R42" s="14">
         <v>2.6441530000000002E-6</v>
       </c>
-      <c r="S42" s="26">
+      <c r="S42" s="15">
         <v>44.356186999999998</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>58</v>
+      <c r="A43" s="20">
+        <v>0.73864014930811295</v>
       </c>
       <c r="B43">
         <v>2.8487290000000001E-6</v>
@@ -11371,49 +11030,49 @@
       <c r="D43">
         <v>50.253177000000001</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="E43" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="10">
         <v>0.73864102215420901</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <v>1.9758830000000002E-6</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>2.6750170000000001E-6</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <v>62.901240999999999</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>0.73864102620306871</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="14">
         <v>1.971834E-6</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="14">
         <v>2.6695360000000002E-6</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="15">
         <v>40.246578999999997</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="10">
         <v>0.73863842706045335</v>
       </c>
-      <c r="Q43" s="22">
+      <c r="Q43" s="11">
         <v>4.5709760000000001E-6</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R43" s="11">
         <v>6.1883429999999998E-6</v>
       </c>
-      <c r="S43" s="23">
+      <c r="S43" s="12">
         <v>45.735914999999999</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>59</v>
+      <c r="A44" s="20">
+        <v>0.73864120240942599</v>
       </c>
       <c r="B44">
         <v>1.7956269999999999E-6</v>
@@ -11424,49 +11083,49 @@
       <c r="D44">
         <v>47.907670000000003</v>
       </c>
-      <c r="E44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="13">
         <v>0.73864107650231003</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>1.9215350000000001E-6</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <v>2.6014389999999998E-6</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="15">
         <v>62.937094999999999</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <v>0.73864007550680244</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <v>2.92253E-6</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>3.9566210000000003E-6</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N44" s="12">
         <v>41.310563999999999</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P44" s="13">
         <v>0.73863827429514894</v>
       </c>
-      <c r="Q44" s="25">
+      <c r="Q44" s="14">
         <v>4.7237420000000001E-6</v>
       </c>
-      <c r="R44" s="25">
+      <c r="R44" s="14">
         <v>6.3951620000000004E-6</v>
       </c>
-      <c r="S44" s="26">
+      <c r="S44" s="15">
         <v>60.051164</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>60</v>
+      <c r="A45" s="20">
+        <v>0.73863990157241599</v>
       </c>
       <c r="B45">
         <v>3.0964640000000002E-6</v>
@@ -11477,49 +11136,49 @@
       <c r="D45">
         <v>43.483651000000002</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="E45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="10">
         <v>0.73863990548154201</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>3.0925550000000001E-6</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>4.1868070000000003E-6</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>63.921193000000002</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>0.73864152704756858</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="14">
         <v>1.4709890000000001E-6</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="14">
         <v>1.9914749999999999E-6</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N45" s="15">
         <v>40.067995000000003</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="10">
         <v>0.73863929947175078</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="11">
         <v>3.6985650000000001E-6</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="11">
         <v>5.0072430000000002E-6</v>
       </c>
-      <c r="S45" s="23">
+      <c r="S45" s="12">
         <v>51.207515000000001</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>61</v>
+      <c r="A46" s="20">
+        <v>0.73864137998566104</v>
       </c>
       <c r="B46">
         <v>1.6180509999999999E-6</v>
@@ -11530,49 +11189,49 @@
       <c r="D46">
         <v>47.889296999999999</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="14">
+      <c r="E46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="13">
         <v>0.73863881940849485</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>4.178628E-6</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>5.657169E-6</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <v>69.028533999999993</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <v>0.73863953941149141</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>3.4586249999999999E-6</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="11">
         <v>4.6824049999999998E-6</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N46" s="12">
         <v>42.101063000000003</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="13">
         <v>0.73863826979416436</v>
       </c>
-      <c r="Q46" s="25">
+      <c r="Q46" s="14">
         <v>4.728243E-6</v>
       </c>
-      <c r="R46" s="25">
+      <c r="R46" s="14">
         <v>6.4012559999999997E-6</v>
       </c>
-      <c r="S46" s="26">
+      <c r="S46" s="15">
         <v>46.289867000000001</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>62</v>
+      <c r="A47" s="20">
+        <v>0.73864132447335595</v>
       </c>
       <c r="B47">
         <v>1.673564E-6</v>
@@ -11583,49 +11242,49 @@
       <c r="D47">
         <v>41.525342999999999</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="11">
+      <c r="E47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="10">
         <v>0.73863992615671337</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <v>3.0718800000000001E-6</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>4.1588160000000003E-6</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="12">
         <v>64.855187000000001</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <v>0.73864019360269306</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="14">
         <v>2.8044339999999999E-6</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="14">
         <v>3.7967380000000002E-6</v>
       </c>
-      <c r="N47" s="16">
+      <c r="N47" s="15">
         <v>44.340311</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="10">
         <v>0.73863825124270499</v>
       </c>
-      <c r="Q47" s="22">
+      <c r="Q47" s="11">
         <v>4.7467940000000003E-6</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="11">
         <v>6.4263709999999998E-6</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="12">
         <v>50.258746000000002</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>63</v>
+      <c r="A48" s="20">
+        <v>0.73864081442654395</v>
       </c>
       <c r="B48">
         <v>2.18361E-6</v>
@@ -11636,49 +11295,49 @@
       <c r="D48">
         <v>40.010404000000001</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="14">
+      <c r="E48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="13">
         <v>0.73863842277396108</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>4.5752629999999997E-6</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <v>6.1941459999999997E-6</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="15">
         <v>65.060164999999998</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <v>0.73864015321607368</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <v>2.8448209999999998E-6</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>3.8514150000000003E-6</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="12">
         <v>40.787416</v>
       </c>
-      <c r="P48" s="24">
+      <c r="P48" s="13">
         <v>0.73864003033797976</v>
       </c>
-      <c r="Q48" s="25">
+      <c r="Q48" s="14">
         <v>2.9676990000000002E-6</v>
       </c>
-      <c r="R48" s="25">
+      <c r="R48" s="14">
         <v>4.017772E-6</v>
       </c>
-      <c r="S48" s="26">
+      <c r="S48" s="15">
         <v>53.186399999999999</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>64</v>
+      <c r="A49" s="20">
+        <v>0.73864006963273598</v>
       </c>
       <c r="B49">
         <v>2.9284039999999999E-6</v>
@@ -11689,49 +11348,49 @@
       <c r="D49">
         <v>40.552959999999999</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="E49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="10">
         <v>0.73863805592868415</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <v>4.9421079999999999E-6</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>6.6907939999999998E-6</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="12">
         <v>58.964128000000002</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <v>0.73864043394541323</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <v>2.5640910000000001E-6</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="14">
         <v>3.4713539999999999E-6</v>
       </c>
-      <c r="N49" s="16">
+      <c r="N49" s="15">
         <v>51.522886999999997</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P49" s="10">
         <v>0.73863855135150791</v>
       </c>
-      <c r="Q49" s="22">
+      <c r="Q49" s="11">
         <v>4.4466849999999999E-6</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="11">
         <v>6.0200739999999999E-6</v>
       </c>
-      <c r="S49" s="23">
+      <c r="S49" s="12">
         <v>50.131030000000003</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>65</v>
+      <c r="A50" s="20">
+        <v>0.73864027364205997</v>
       </c>
       <c r="B50">
         <v>2.7243950000000002E-6</v>
@@ -11742,49 +11401,49 @@
       <c r="D50">
         <v>41.383214000000002</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="14">
+      <c r="E50" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="13">
         <v>0.73864101912393065</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>1.978913E-6</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="14">
         <v>2.67912E-6</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="15">
         <v>71.367299000000003</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <v>0.7386386123537475</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="11">
         <v>4.3856830000000004E-6</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="11">
         <v>5.9374869999999998E-6</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N50" s="12">
         <v>44.922840999999998</v>
       </c>
-      <c r="P50" s="24">
+      <c r="P50" s="13">
         <v>0.73864093593714197</v>
       </c>
-      <c r="Q50" s="25">
+      <c r="Q50" s="14">
         <v>2.0621000000000001E-6</v>
       </c>
-      <c r="R50" s="25">
+      <c r="R50" s="14">
         <v>2.791741E-6</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="15">
         <v>49.599215999999998</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>66</v>
+      <c r="A51" s="20">
+        <v>0.73863990495189202</v>
       </c>
       <c r="B51">
         <v>3.0930849999999999E-6</v>
@@ -11795,43 +11454,43 @@
       <c r="D51">
         <v>42.295160000000003</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="11">
+      <c r="E51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="10">
         <v>0.73864229061117159</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>7.0742570000000005E-7</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>9.5773699999999992E-7</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="12">
         <v>74.566685000000007</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <v>0.73864028096328604</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="14">
         <v>2.7170739999999999E-6</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="14">
         <v>3.6784670000000002E-6</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N51" s="15">
         <v>40.140666000000003</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="10">
         <v>0.73864133927971798</v>
       </c>
-      <c r="Q51" s="22">
+      <c r="Q51" s="11">
         <v>1.658757E-6</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="11">
         <v>2.2456819999999999E-6</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="12">
         <v>49.618098000000003</v>
       </c>
     </row>
@@ -11848,63 +11507,63 @@
         <f>MEDIAN(D42:D51)</f>
         <v>42.146279500000006</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="16">
         <f>MEDIAN(G42:G51)</f>
         <v>2.8258595E-6</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="16">
         <f>MEDIAN(H42:H51)</f>
         <v>3.8257450000000002E-6</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="17">
         <f>MEDIAN(I42:I51)</f>
         <v>64.388190000000009</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="16">
         <f>MEDIAN(L42:L51)</f>
         <v>2.8246274999999998E-6</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="16">
         <f>MEDIAN(M42:M51)</f>
         <v>3.8240765000000002E-6</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="17">
         <f>MEDIAN(N42:N51)</f>
         <v>41.048990000000003</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="16">
         <f>MEDIAN(Q42:Q51)</f>
         <v>4.0726249999999998E-6</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R52" s="16">
         <f>MEDIAN(R42:R51)</f>
         <v>5.5136585000000001E-6</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S52" s="17">
         <f>MEDIAN(S42:S51)</f>
         <v>49.874564000000007</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>25</v>
+      <c r="E54" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>67</v>
+      <c r="A55" s="20">
+        <v>0.73864110307888098</v>
       </c>
       <c r="B55">
         <v>1.894958E-6</v>
@@ -11915,49 +11574,49 @@
       <c r="D55">
         <v>34.768438000000003</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="E55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="10">
         <v>0.73864247314133502</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <v>5.2489559999999997E-7</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>7.1062140000000004E-7</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="12">
         <v>60.711222999999997</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="13">
         <v>0.73864151464879957</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="14">
         <v>1.4833879999999999E-6</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="14">
         <v>2.0082609999999999E-6</v>
       </c>
-      <c r="N55" s="16">
+      <c r="N55" s="15">
         <v>36.355887000000003</v>
       </c>
-      <c r="P55" s="21">
+      <c r="P55" s="10">
         <v>0.73864048810600091</v>
       </c>
-      <c r="Q55" s="22">
+      <c r="Q55" s="11">
         <v>2.5099310000000001E-6</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="11">
         <v>3.3980299999999999E-6</v>
       </c>
-      <c r="S55" s="23">
+      <c r="S55" s="12">
         <v>42.141784000000001</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>68</v>
+      <c r="A56" s="20">
+        <v>0.738643825783737</v>
       </c>
       <c r="B56">
         <v>8.2774679999999997E-7</v>
@@ -11968,49 +11627,49 @@
       <c r="D56">
         <v>35.413646</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="14">
+      <c r="E56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="13">
         <v>0.73864256867062983</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>4.2936630000000001E-7</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="14">
         <v>5.8129060000000004E-7</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="15">
         <v>74.045124999999999</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>0.7386403559317275</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <v>2.642105E-6</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="11">
         <v>3.5769719999999999E-6</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N56" s="12">
         <v>33.838413000000003</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P56" s="13">
         <v>0.73864164491484019</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="14">
         <v>1.353122E-6</v>
       </c>
-      <c r="R56" s="25">
+      <c r="R56" s="14">
         <v>1.8319030000000001E-6</v>
       </c>
-      <c r="S56" s="26">
+      <c r="S56" s="15">
         <v>48.536597999999998</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>69</v>
+      <c r="A57" s="20">
+        <v>0.73864110104790603</v>
       </c>
       <c r="B57">
         <v>1.8969889999999999E-6</v>
@@ -12021,49 +11680,49 @@
       <c r="D57">
         <v>35.921787000000002</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="11">
+      <c r="E57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="10">
         <v>0.7386427689522046</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>2.2908470000000001E-7</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>3.101426E-7</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>68.211665999999994</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="13">
         <v>0.73864282364560485</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="14">
         <v>1.7439129999999999E-7</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="14">
         <v>2.3609690000000001E-7</v>
       </c>
-      <c r="N57" s="16">
+      <c r="N57" s="15">
         <v>34.192250000000001</v>
       </c>
-      <c r="P57" s="21">
+      <c r="P57" s="10">
         <v>0.73864290264322296</v>
       </c>
-      <c r="Q57" s="22">
+      <c r="Q57" s="11">
         <v>9.5393669999999994E-8</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="11">
         <v>1.291472E-7</v>
       </c>
-      <c r="S57" s="23">
+      <c r="S57" s="12">
         <v>42.636172000000002</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>70</v>
+      <c r="A58" s="20">
+        <v>0.73864118795610401</v>
       </c>
       <c r="B58">
         <v>1.8100809999999999E-6</v>
@@ -12074,49 +11733,49 @@
       <c r="D58">
         <v>34.77375</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="14">
+      <c r="E58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="13">
         <v>0.73864196334545817</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>1.034691E-6</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <v>1.4008E-6</v>
       </c>
-      <c r="I58" s="16">
+      <c r="I58" s="15">
         <v>68.005263999999997</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <v>0.73864302239978796</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <v>2.4362899999999999E-8</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="11">
         <v>3.2983320000000001E-8</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N58" s="12">
         <v>33.796382000000001</v>
       </c>
-      <c r="P58" s="24">
+      <c r="P58" s="13">
         <v>0.73864306665365931</v>
       </c>
-      <c r="Q58" s="25">
+      <c r="Q58" s="14">
         <v>6.8616769999999998E-8</v>
       </c>
-      <c r="R58" s="25">
+      <c r="R58" s="14">
         <v>9.2895709999999994E-8</v>
       </c>
-      <c r="S58" s="26">
+      <c r="S58" s="15">
         <v>41.559679000000003</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>71</v>
+      <c r="A59" s="20">
+        <v>0.73864248039216596</v>
       </c>
       <c r="B59">
         <v>5.1764469999999997E-7</v>
@@ -12127,49 +11786,49 @@
       <c r="D59">
         <v>34.691029</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="11">
+      <c r="E59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="10">
         <v>0.73864066255806426</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>2.335479E-6</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>3.1618509999999999E-6</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="12">
         <v>66.933400000000006</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <v>0.7386424481822409</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="14">
         <v>5.4985459999999997E-7</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="14">
         <v>7.4441189999999999E-7</v>
       </c>
-      <c r="N59" s="16">
+      <c r="N59" s="15">
         <v>36.324216999999997</v>
       </c>
-      <c r="P59" s="21">
+      <c r="P59" s="10">
         <v>0.73864309299641961</v>
       </c>
-      <c r="Q59" s="22">
+      <c r="Q59" s="11">
         <v>9.495953E-8</v>
       </c>
-      <c r="R59" s="22">
+      <c r="R59" s="11">
         <v>1.285594E-7</v>
       </c>
-      <c r="S59" s="23">
+      <c r="S59" s="12">
         <v>39.758012000000001</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>72</v>
+      <c r="A60" s="20">
+        <v>0.73864327575782396</v>
       </c>
       <c r="B60">
         <v>2.7772090000000001E-7</v>
@@ -12180,49 +11839,49 @@
       <c r="D60">
         <v>34.807484000000002</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="E60" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="13">
         <v>0.73864129189594074</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>1.7061409999999999E-6</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="14">
         <v>2.3098319999999999E-6</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>63.814331000000003</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <v>0.738643010636024</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <v>1.2599129999999999E-8</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="11">
         <v>1.705714E-8</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N60" s="12">
         <v>34.263167000000003</v>
       </c>
-      <c r="P60" s="24">
+      <c r="P60" s="13">
         <v>0.73864209951588911</v>
       </c>
-      <c r="Q60" s="25">
+      <c r="Q60" s="14">
         <v>8.98521E-7</v>
       </c>
-      <c r="R60" s="25">
+      <c r="R60" s="14">
         <v>1.216448E-6</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="15">
         <v>45.742204000000001</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>73</v>
+      <c r="A61" s="20">
+        <v>0.73864139335794199</v>
       </c>
       <c r="B61">
         <v>1.6046789999999999E-6</v>
@@ -12233,49 +11892,49 @@
       <c r="D61">
         <v>36.593310000000002</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="11">
+      <c r="E61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="10">
         <v>0.73864097564981335</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <v>2.0223870000000002E-6</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>2.7379760000000001E-6</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="12">
         <v>65.783974999999998</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="13">
         <v>0.73864156037406059</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="14">
         <v>1.4376630000000001E-6</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="14">
         <v>1.946357E-6</v>
       </c>
-      <c r="N61" s="16">
+      <c r="N61" s="15">
         <v>34.085372</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="10">
         <v>0.73864167491398103</v>
       </c>
-      <c r="Q61" s="22">
+      <c r="Q61" s="11">
         <v>1.3231230000000001E-6</v>
       </c>
-      <c r="R61" s="22">
+      <c r="R61" s="11">
         <v>1.791289E-6</v>
       </c>
-      <c r="S61" s="23">
+      <c r="S61" s="12">
         <v>50.497439999999997</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>74</v>
+      <c r="A62" s="20">
+        <v>0.73864306095530996</v>
       </c>
       <c r="B62">
         <v>6.2918419999999996E-8</v>
@@ -12286,49 +11945,49 @@
       <c r="D62">
         <v>34.928271000000002</v>
       </c>
-      <c r="E62" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="14">
+      <c r="E62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="13">
         <v>0.73864140032682257</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>1.59771E-6</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="14">
         <v>2.163034E-6</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="15">
         <v>57.802000999999997</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <v>0.73864214240903092</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="11">
         <v>8.556279E-7</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="11">
         <v>1.158378E-6</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N62" s="12">
         <v>33.715812999999997</v>
       </c>
-      <c r="P62" s="24">
+      <c r="P62" s="13">
         <v>0.73864215810052281</v>
       </c>
-      <c r="Q62" s="25">
+      <c r="Q62" s="14">
         <v>8.3993640000000001E-7</v>
       </c>
-      <c r="R62" s="25">
+      <c r="R62" s="14">
         <v>1.137134E-6</v>
       </c>
-      <c r="S62" s="26">
+      <c r="S62" s="15">
         <v>43.555405999999998</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>75</v>
+      <c r="A63" s="20">
+        <v>0.73864268388951304</v>
       </c>
       <c r="B63">
         <v>3.1414739999999998E-7</v>
@@ -12339,49 +11998,49 @@
       <c r="D63">
         <v>35.091951000000002</v>
       </c>
-      <c r="E63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="11">
+      <c r="E63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="10">
         <v>0.7386431938466046</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <v>1.958097E-7</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>2.6509380000000002E-7</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="12">
         <v>65.781542000000002</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <v>0.73864197886207128</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="14">
         <v>1.0191750000000001E-6</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="14">
         <v>1.3797939999999999E-6</v>
       </c>
-      <c r="N63" s="16">
+      <c r="N63" s="15">
         <v>34.01276</v>
       </c>
-      <c r="P63" s="21">
+      <c r="P63" s="10">
         <v>0.73864183657961158</v>
       </c>
-      <c r="Q63" s="22">
+      <c r="Q63" s="11">
         <v>1.1614570000000001E-6</v>
       </c>
-      <c r="R63" s="22">
+      <c r="R63" s="11">
         <v>1.5724200000000001E-6</v>
       </c>
-      <c r="S63" s="23">
+      <c r="S63" s="12">
         <v>43.184894999999997</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>76</v>
+      <c r="A64" s="20">
+        <v>0.738641356918735</v>
       </c>
       <c r="B64">
         <v>1.6411179999999999E-6</v>
@@ -12392,43 +12051,43 @@
       <c r="D64">
         <v>34.732785</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="E64" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="13">
         <v>0.73864178233184385</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>1.215705E-6</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="14">
         <v>1.645863E-6</v>
       </c>
-      <c r="I64" s="16">
+      <c r="I64" s="15">
         <v>47.338065</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="10">
         <v>0.73864311759356738</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="11">
         <v>1.1955669999999999E-7</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="11">
         <v>1.618599E-7</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N64" s="12">
         <v>34.035674999999998</v>
       </c>
-      <c r="P64" s="24">
+      <c r="P64" s="13">
         <v>0.73864280418814088</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="Q64" s="14">
         <v>1.938487E-7</v>
       </c>
-      <c r="R64" s="25">
+      <c r="R64" s="14">
         <v>2.6243899999999999E-7</v>
       </c>
-      <c r="S64" s="26">
+      <c r="S64" s="15">
         <v>42.576495000000001</v>
       </c>
     </row>
@@ -12445,63 +12104,63 @@
         <f>MEDIAN(D55:D64)</f>
         <v>34.867877500000006</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <f>MEDIAN(G55:G64)</f>
         <v>1.125198E-6</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="16">
         <f>MEDIAN(H55:H64)</f>
         <v>1.5233315E-6</v>
       </c>
-      <c r="I65" s="18">
+      <c r="I65" s="17">
         <f>MEDIAN(I55:I64)</f>
         <v>65.7827585</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="16">
         <f>MEDIAN(L55:L64)</f>
         <v>7.0274124999999999E-7</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="16">
         <f>MEDIAN(M55:M64)</f>
         <v>9.5139495000000001E-7</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="17">
         <f>MEDIAN(N55:N64)</f>
         <v>34.060523500000002</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="16">
         <f>MEDIAN(Q55:Q64)</f>
         <v>8.692287E-7</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="16">
         <f>MEDIAN(R55:R64)</f>
         <v>1.1767909999999999E-6</v>
       </c>
-      <c r="S65" s="18">
+      <c r="S65" s="17">
         <f>MEDIAN(S55:S64)</f>
         <v>42.9105335</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>25</v>
+      <c r="E67" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>77</v>
+      <c r="A68" s="20">
+        <v>0.73864427000136301</v>
       </c>
       <c r="B68">
         <v>1.2719639999999999E-6</v>
@@ -12512,49 +12171,49 @@
       <c r="D68">
         <v>31.024028999999999</v>
       </c>
-      <c r="E68" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="14">
+      <c r="E68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="13">
         <v>0.7386423440791251</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>6.5395780000000003E-7</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="14">
         <v>8.8535030000000005E-7</v>
       </c>
-      <c r="I68" s="16">
+      <c r="I68" s="15">
         <v>40.489438999999997</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="10">
         <v>0.73864381413050384</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="11">
         <v>8.1609359999999998E-7</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="11">
         <v>1.104855E-6</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N68" s="12">
         <v>30.897378</v>
       </c>
-      <c r="P68" s="24">
+      <c r="P68" s="13">
         <v>0.73864373504363401</v>
       </c>
-      <c r="Q68" s="25">
+      <c r="Q68" s="14">
         <v>7.3700670000000005E-7</v>
       </c>
-      <c r="R68" s="25">
+      <c r="R68" s="14">
         <v>9.9778479999999992E-7</v>
       </c>
-      <c r="S68" s="26">
+      <c r="S68" s="15">
         <v>35.886398999999997</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>78</v>
+      <c r="A69" s="20">
+        <v>0.73864344695536999</v>
       </c>
       <c r="B69">
         <v>4.4891849999999998E-7</v>
@@ -12565,49 +12224,49 @@
       <c r="D69">
         <v>30.744047999999999</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F69" s="11">
+      <c r="E69" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="10">
         <v>0.7386460670002164</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>3.0689629999999998E-6</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>4.1548670000000004E-6</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="12">
         <v>42.007156999999999</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="13">
         <v>0.73864153551504286</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="14">
         <v>1.4625219999999999E-6</v>
       </c>
-      <c r="M69" s="15">
+      <c r="M69" s="14">
         <v>1.980012E-6</v>
       </c>
-      <c r="N69" s="16">
+      <c r="N69" s="15">
         <v>31.015544999999999</v>
       </c>
-      <c r="P69" s="21">
+      <c r="P69" s="10">
         <v>0.73864135696539734</v>
       </c>
-      <c r="Q69" s="22">
+      <c r="Q69" s="11">
         <v>1.6410710000000001E-6</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R69" s="11">
         <v>2.221738E-6</v>
       </c>
-      <c r="S69" s="23">
+      <c r="S69" s="12">
         <v>37.541469999999997</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>79</v>
+      <c r="A70" s="20">
+        <v>0.73864408432099304</v>
       </c>
       <c r="B70">
         <v>1.0862840000000001E-6</v>
@@ -12618,49 +12277,49 @@
       <c r="D70">
         <v>32.259785000000001</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="14">
+      <c r="E70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="13">
         <v>0.73864390314492145</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <v>9.0510800000000003E-7</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="14">
         <v>1.2253660000000001E-6</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="15">
         <v>44.900545999999999</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="10">
         <v>0.73864311240613467</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>1.1436919999999999E-7</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="11">
         <v>1.54837E-7</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N70" s="12">
         <v>31.316075000000001</v>
       </c>
-      <c r="P70" s="24">
+      <c r="P70" s="13">
         <v>0.7386428268867008</v>
       </c>
-      <c r="Q70" s="25">
+      <c r="Q70" s="14">
         <v>1.711502E-7</v>
       </c>
-      <c r="R70" s="25">
+      <c r="R70" s="14">
         <v>2.3170890000000001E-7</v>
       </c>
-      <c r="S70" s="26">
+      <c r="S70" s="15">
         <v>37.244599999999998</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>80</v>
+      <c r="A71" s="20">
+        <v>0.73864217559704104</v>
       </c>
       <c r="B71">
         <v>8.2243980000000001E-7</v>
@@ -12671,49 +12330,49 @@
       <c r="D71">
         <v>33.448636</v>
       </c>
-      <c r="E71" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="11">
+      <c r="E71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="10">
         <v>0.73864217045502056</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>8.2758190000000001E-7</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>1.1204079999999999E-6</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="12">
         <v>59.535926000000003</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="13">
         <v>0.73864303194958369</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="14">
         <v>3.3912690000000001E-8</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="14">
         <v>4.5912159999999999E-8</v>
       </c>
-      <c r="N71" s="16">
+      <c r="N71" s="15">
         <v>31.263551</v>
       </c>
-      <c r="P71" s="21">
+      <c r="P71" s="10">
         <v>0.73864340069670853</v>
       </c>
-      <c r="Q71" s="22">
+      <c r="Q71" s="11">
         <v>4.026598E-7</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="11">
         <v>5.4513460000000002E-7</v>
       </c>
-      <c r="S71" s="23">
+      <c r="S71" s="12">
         <v>37.403967999999999</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>81</v>
+      <c r="A72" s="20">
+        <v>0.73864288571604497</v>
       </c>
       <c r="B72">
         <v>1.1232080000000001E-7</v>
@@ -12724,49 +12383,49 @@
       <c r="D72">
         <v>36.285246000000001</v>
       </c>
-      <c r="E72" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F72" s="14">
+      <c r="E72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="13">
         <v>0.73864277756146213</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="14">
         <v>2.2047539999999999E-7</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="14">
         <v>2.9848709999999998E-7</v>
       </c>
-      <c r="I72" s="16">
+      <c r="I72" s="15">
         <v>65.835486000000003</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <v>0.73864362464379052</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="11">
         <v>6.266069E-7</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="11">
         <v>8.4832170000000004E-7</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N72" s="12">
         <v>30.755979</v>
       </c>
-      <c r="P72" s="24">
+      <c r="P72" s="13">
         <v>0.73864179661193252</v>
       </c>
-      <c r="Q72" s="25">
+      <c r="Q72" s="14">
         <v>1.2014250000000001E-6</v>
       </c>
-      <c r="R72" s="25">
+      <c r="R72" s="14">
         <v>1.62653E-6</v>
       </c>
-      <c r="S72" s="26">
+      <c r="S72" s="15">
         <v>38.668410000000002</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>82</v>
+      <c r="A73" s="20">
+        <v>0.73864324605613996</v>
       </c>
       <c r="B73">
         <v>2.4801919999999998E-7</v>
@@ -12777,49 +12436,49 @@
       <c r="D73">
         <v>34.769213000000001</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" s="11">
+      <c r="E73" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="10">
         <v>0.73864351605743572</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <v>5.1802049999999999E-7</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>7.0131380000000004E-7</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="12">
         <v>59.560242000000002</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K73" s="13">
         <v>0.73864154738555332</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <v>1.4506510000000001E-6</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="14">
         <v>1.963941E-6</v>
       </c>
-      <c r="N73" s="16">
+      <c r="N73" s="15">
         <v>31.226967999999999</v>
       </c>
-      <c r="P73" s="21">
+      <c r="P73" s="10">
         <v>0.73864278512693193</v>
       </c>
-      <c r="Q73" s="22">
+      <c r="Q73" s="11">
         <v>2.1290999999999999E-7</v>
       </c>
-      <c r="R73" s="22">
+      <c r="R73" s="11">
         <v>2.8824469999999999E-7</v>
       </c>
-      <c r="S73" s="23">
+      <c r="S73" s="12">
         <v>37.563167</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>83</v>
+      <c r="A74" s="20">
+        <v>0.73864311879369504</v>
       </c>
       <c r="B74">
         <v>1.2075679999999999E-7</v>
@@ -12830,49 +12489,49 @@
       <c r="D74">
         <v>42.953822000000002</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="14">
+      <c r="E74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="13">
         <v>0.73864115440095091</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="14">
         <v>1.843636E-6</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="14">
         <v>2.4959769999999999E-6</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="15">
         <v>32.712211000000003</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="10">
         <v>0.73864174456150866</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="11">
         <v>1.2534750000000001E-6</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="11">
         <v>1.696998E-6</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N74" s="12">
         <v>30.793172999999999</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P74" s="13">
         <v>0.73864183034142528</v>
       </c>
-      <c r="Q74" s="25">
+      <c r="Q74" s="14">
         <v>1.1676949999999999E-6</v>
       </c>
-      <c r="R74" s="25">
+      <c r="R74" s="14">
         <v>1.5808660000000001E-6</v>
       </c>
-      <c r="S74" s="26">
+      <c r="S74" s="15">
         <v>39.359679999999997</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>84</v>
+      <c r="A75" s="20">
+        <v>0.73864213182365501</v>
       </c>
       <c r="B75">
         <v>8.6621319999999999E-7</v>
@@ -12883,49 +12542,49 @@
       <c r="D75">
         <v>44.773249999999997</v>
       </c>
-      <c r="E75" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="11">
+      <c r="E75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="10">
         <v>0.73864325227452621</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <v>2.5423760000000001E-7</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <v>3.441956E-7</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="12">
         <v>31.608498999999998</v>
       </c>
-      <c r="K75" s="14">
+      <c r="K75" s="13">
         <v>0.73864252121238338</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L75" s="14">
         <v>4.7682450000000002E-7</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>6.4554119999999995E-7</v>
       </c>
-      <c r="N75" s="16">
+      <c r="N75" s="15">
         <v>30.740461</v>
       </c>
-      <c r="P75" s="21">
+      <c r="P75" s="10">
         <v>0.73864362280800167</v>
       </c>
-      <c r="Q75" s="22">
+      <c r="Q75" s="11">
         <v>6.2477110000000002E-7</v>
       </c>
-      <c r="R75" s="22">
+      <c r="R75" s="11">
         <v>8.4583640000000003E-7</v>
       </c>
-      <c r="S75" s="23">
+      <c r="S75" s="12">
         <v>40.348934</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>85</v>
+      <c r="A76" s="20">
+        <v>0.738642786242932</v>
       </c>
       <c r="B76">
         <v>2.11794E-7</v>
@@ -12936,49 +12595,49 @@
       <c r="D76">
         <v>31.507763000000001</v>
       </c>
-      <c r="E76" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="14">
+      <c r="E76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="13">
         <v>0.73864460174038515</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="14">
         <v>1.6037030000000001E-6</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="14">
         <v>2.1711479999999999E-6</v>
       </c>
-      <c r="I76" s="16">
+      <c r="I76" s="15">
         <v>31.708722999999999</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="10">
         <v>0.73864168985518841</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="11">
         <v>1.308182E-6</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="11">
         <v>1.7710610000000001E-6</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N76" s="12">
         <v>31.033736000000001</v>
       </c>
-      <c r="P76" s="24">
+      <c r="P76" s="13">
         <v>0.73864349985123401</v>
       </c>
-      <c r="Q76" s="25">
+      <c r="Q76" s="14">
         <v>5.018143E-7</v>
       </c>
-      <c r="R76" s="25">
+      <c r="R76" s="14">
         <v>6.7937330000000003E-7</v>
       </c>
-      <c r="S76" s="26">
+      <c r="S76" s="15">
         <v>42.525727000000003</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>86</v>
+      <c r="A77" s="20">
+        <v>0.73864141895364699</v>
       </c>
       <c r="B77">
         <v>1.579083E-6</v>
@@ -12989,43 +12648,43 @@
       <c r="D77">
         <v>30.573836</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F77" s="11">
+      <c r="E77" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="10">
         <v>0.73864297417356894</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="11">
         <v>2.3863319999999999E-8</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <v>3.230698E-8</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="12">
         <v>31.545524</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="13">
         <v>0.73864226749796735</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="14">
         <v>7.3053890000000001E-7</v>
       </c>
-      <c r="M77" s="15">
+      <c r="M77" s="14">
         <v>9.8902840000000008E-7</v>
       </c>
-      <c r="N77" s="16">
+      <c r="N77" s="15">
         <v>31.640388000000002</v>
       </c>
-      <c r="P77" s="21">
+      <c r="P77" s="10">
         <v>0.73864207765546186</v>
       </c>
-      <c r="Q77" s="22">
+      <c r="Q77" s="11">
         <v>9.2038139999999998E-7</v>
       </c>
-      <c r="R77" s="22">
+      <c r="R77" s="11">
         <v>1.246044E-6</v>
       </c>
-      <c r="S77" s="23">
+      <c r="S77" s="12">
         <v>37.024963999999997</v>
       </c>
     </row>
@@ -13042,63 +12701,63 @@
         <f>MEDIAN(D68:D77)</f>
         <v>32.854210500000001</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="14">
         <f>MEDIAN(G68:G77)</f>
         <v>7.4076985000000007E-7</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="14">
         <f>MEDIAN(H68:H77)</f>
         <v>1.0028791499999999E-6</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="15">
         <f>MEDIAN(I68:I77)</f>
         <v>41.248297999999998</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="14">
         <f>MEDIAN(L68:L77)</f>
         <v>7.7331624999999994E-7</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="14">
         <f>MEDIAN(M68:M77)</f>
         <v>1.0469417000000002E-6</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N78" s="15">
         <f>MEDIAN(N68:N77)</f>
         <v>31.0246405</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="14">
         <f>MEDIAN(Q68:Q77)</f>
         <v>6.8088890000000009E-7</v>
       </c>
-      <c r="R78" s="15">
+      <c r="R78" s="14">
         <f>MEDIAN(R68:R77)</f>
         <v>9.2181059999999992E-7</v>
       </c>
-      <c r="S78" s="16">
+      <c r="S78" s="15">
         <f>MEDIAN(S68:S77)</f>
         <v>37.552318499999998</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>25</v>
+      <c r="E80" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>87</v>
+      <c r="A81" s="20">
+        <v>0.73864577946897103</v>
       </c>
       <c r="B81">
         <v>2.7814320000000002E-6</v>
@@ -13109,49 +12768,49 @@
       <c r="D81">
         <v>28.177976000000001</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F81" s="11">
+      <c r="E81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="10">
         <v>0.73864313806100323</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="11">
         <v>1.400241E-7</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="11">
         <v>1.8956939999999999E-7</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="12">
         <v>30.270747</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K81" s="13">
         <v>0.73864198868268549</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L81" s="14">
         <v>1.009354E-6</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <v>1.3664979999999999E-6</v>
       </c>
-      <c r="N81" s="16">
+      <c r="N81" s="15">
         <v>27.433941000000001</v>
       </c>
-      <c r="P81" s="21">
+      <c r="P81" s="10">
         <v>0.73864327106164018</v>
       </c>
-      <c r="Q81" s="22">
+      <c r="Q81" s="11">
         <v>2.7302479999999999E-7</v>
       </c>
-      <c r="R81" s="22">
+      <c r="R81" s="11">
         <v>3.6963019999999999E-7</v>
       </c>
-      <c r="S81" s="23">
+      <c r="S81" s="12">
         <v>32.330235000000002</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>88</v>
+      <c r="A82" s="20">
+        <v>0.73864440949230703</v>
       </c>
       <c r="B82">
         <v>1.411455E-6</v>
@@ -13162,49 +12821,49 @@
       <c r="D82">
         <v>29.439539</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F82" s="14">
+      <c r="E82" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="13">
         <v>0.73864190480348813</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="14">
         <v>1.093233E-6</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="14">
         <v>1.4800569999999999E-6</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="15">
         <v>28.458098</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="10">
         <v>0.73864357366819267</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="11">
         <v>5.7563129999999998E-7</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M82" s="11">
         <v>7.7930920000000002E-7</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N82" s="12">
         <v>27.410411</v>
       </c>
-      <c r="P82" s="24">
+      <c r="P82" s="13">
         <v>0.73864188227821548</v>
       </c>
-      <c r="Q82" s="25">
+      <c r="Q82" s="14">
         <v>1.1157589999999999E-6</v>
       </c>
-      <c r="R82" s="25">
+      <c r="R82" s="14">
         <v>1.5105519999999999E-6</v>
       </c>
-      <c r="S82" s="26">
+      <c r="S82" s="15">
         <v>36.117196999999997</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>89</v>
+      <c r="A83" s="20">
+        <v>0.73864249861933096</v>
       </c>
       <c r="B83">
         <v>4.9941760000000004E-7</v>
@@ -13215,49 +12874,49 @@
       <c r="D83">
         <v>28.314872999999999</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F83" s="11">
+      <c r="E83" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="10">
         <v>0.73864419947932169</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G83" s="11">
         <v>1.2014419999999999E-6</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <v>1.626554E-6</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="12">
         <v>30.650463999999999</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K83" s="13">
         <v>0.73864324617537247</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L83" s="14">
         <v>2.4813850000000001E-7</v>
       </c>
-      <c r="M83" s="15">
+      <c r="M83" s="14">
         <v>3.359383E-7</v>
       </c>
-      <c r="N83" s="16">
+      <c r="N83" s="15">
         <v>27.708062000000002</v>
       </c>
-      <c r="P83" s="21">
+      <c r="P83" s="10">
         <v>0.73864417851194042</v>
       </c>
-      <c r="Q83" s="22">
+      <c r="Q83" s="11">
         <v>1.1804749999999999E-6</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R83" s="11">
         <v>1.5981669999999999E-6</v>
       </c>
-      <c r="S83" s="23">
+      <c r="S83" s="12">
         <v>42.245114000000001</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>90</v>
+      <c r="A84" s="20">
+        <v>0.73864419153625804</v>
       </c>
       <c r="B84">
         <v>1.1934990000000001E-6</v>
@@ -13268,49 +12927,49 @@
       <c r="D84">
         <v>28.205691999999999</v>
       </c>
-      <c r="E84" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="14">
+      <c r="E84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="13">
         <v>0.73864182507812359</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="14">
         <v>1.172959E-6</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="14">
         <v>1.587991E-6</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="15">
         <v>28.861789000000002</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <v>0.73864513217271255</v>
       </c>
-      <c r="L84" s="12">
+      <c r="L84" s="11">
         <v>2.1341360000000002E-6</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M84" s="11">
         <v>2.8892659999999999E-6</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N84" s="12">
         <v>27.828803000000001</v>
       </c>
-      <c r="P84" s="24">
+      <c r="P84" s="13">
         <v>0.73864160700417425</v>
       </c>
-      <c r="Q84" s="25">
+      <c r="Q84" s="14">
         <v>1.391033E-6</v>
       </c>
-      <c r="R84" s="25">
+      <c r="R84" s="14">
         <v>1.8832269999999999E-6</v>
       </c>
-      <c r="S84" s="26">
+      <c r="S84" s="15">
         <v>48.070954</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>91</v>
+      <c r="A85" s="20">
+        <v>0.73864269971938701</v>
       </c>
       <c r="B85">
         <v>2.9831750000000002E-7</v>
@@ -13321,49 +12980,49 @@
       <c r="D85">
         <v>28.382111999999999</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="11">
+      <c r="E85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="10">
         <v>0.7386417359811559</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G85" s="11">
         <v>1.262056E-6</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>1.708614E-6</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="12">
         <v>28.745716999999999</v>
       </c>
-      <c r="K85" s="14">
+      <c r="K85" s="13">
         <v>0.73864207226054512</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L85" s="14">
         <v>9.2577629999999999E-7</v>
       </c>
-      <c r="M85" s="15">
+      <c r="M85" s="14">
         <v>1.253347E-6</v>
       </c>
-      <c r="N85" s="16">
+      <c r="N85" s="15">
         <v>27.631845999999999</v>
       </c>
-      <c r="P85" s="21">
+      <c r="P85" s="10">
         <v>0.7386420759877439</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q85" s="11">
         <v>9.2204910000000005E-7</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="11">
         <v>1.248301E-6</v>
       </c>
-      <c r="S85" s="23">
+      <c r="S85" s="12">
         <v>49.280121000000001</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>92</v>
+      <c r="A86" s="20">
+        <v>0.73864239554913302</v>
       </c>
       <c r="B86">
         <v>6.0248779999999995E-7</v>
@@ -13374,49 +13033,49 @@
       <c r="D86">
         <v>28.728057</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="14">
+      <c r="E86" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="13">
         <v>0.73864182327501515</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="14">
         <v>1.174762E-6</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H86" s="14">
         <v>1.5904329999999999E-6</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="15">
         <v>29.315632999999998</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="10">
         <v>0.73864334895850992</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="11">
         <v>3.509216E-7</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M86" s="11">
         <v>4.7508959999999998E-7</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N86" s="12">
         <v>27.756087000000001</v>
       </c>
-      <c r="P86" s="24">
+      <c r="P86" s="13">
         <v>0.73864276131186679</v>
       </c>
-      <c r="Q86" s="25">
+      <c r="Q86" s="14">
         <v>2.36725E-7</v>
       </c>
-      <c r="R86" s="25">
+      <c r="R86" s="14">
         <v>3.204864E-7</v>
       </c>
-      <c r="S86" s="26">
+      <c r="S86" s="15">
         <v>48.582909999999998</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>93</v>
+      <c r="A87" s="20">
+        <v>0.73864250763213102</v>
       </c>
       <c r="B87">
         <v>4.9040480000000005E-7</v>
@@ -13427,49 +13086,49 @@
       <c r="D87">
         <v>31.439688</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="E87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="10">
         <v>0.73864299900726971</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G87" s="11">
         <v>9.7037959999999999E-10</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <v>1.3137330000000001E-9</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="12">
         <v>30.670209</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K87" s="13">
         <v>0.73864172457598465</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L87" s="14">
         <v>1.2734609999999999E-6</v>
       </c>
-      <c r="M87" s="15">
+      <c r="M87" s="14">
         <v>1.724055E-6</v>
       </c>
-      <c r="N87" s="16">
+      <c r="N87" s="15">
         <v>28.975214999999999</v>
       </c>
-      <c r="P87" s="21">
+      <c r="P87" s="10">
         <v>0.7386440317422498</v>
       </c>
-      <c r="Q87" s="22">
+      <c r="Q87" s="11">
         <v>1.0337050000000001E-6</v>
       </c>
-      <c r="R87" s="22">
+      <c r="R87" s="11">
         <v>1.399465E-6</v>
       </c>
-      <c r="S87" s="23">
+      <c r="S87" s="12">
         <v>44.966411999999998</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>94</v>
+      <c r="A88" s="20">
+        <v>0.73864310687106205</v>
       </c>
       <c r="B88">
         <v>1.088342E-7</v>
@@ -13480,49 +13139,49 @@
       <c r="D88">
         <v>31.412015</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F88" s="14">
+      <c r="E88" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="13">
         <v>0.73864284752175446</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="14">
         <v>1.5051509999999999E-7</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H88" s="14">
         <v>2.0377249999999999E-7</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="15">
         <v>28.842345999999999</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="10">
         <v>0.73864243674630359</v>
       </c>
-      <c r="L88" s="12">
+      <c r="L88" s="11">
         <v>5.6129060000000002E-7</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M88" s="11">
         <v>7.5989429999999999E-7</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N88" s="12">
         <v>28.212710999999999</v>
       </c>
-      <c r="P88" s="24">
+      <c r="P88" s="13">
         <v>0.7386425580474425</v>
       </c>
-      <c r="Q88" s="25">
+      <c r="Q88" s="14">
         <v>4.3998940000000001E-7</v>
       </c>
-      <c r="R88" s="25">
+      <c r="R88" s="14">
         <v>5.9567270000000004E-7</v>
       </c>
-      <c r="S88" s="26">
+      <c r="S88" s="15">
         <v>45.539800999999997</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>95</v>
+      <c r="A89" s="20">
+        <v>0.73864222785297895</v>
       </c>
       <c r="B89">
         <v>7.7018389999999999E-7</v>
@@ -13533,49 +13192,49 @@
       <c r="D89">
         <v>28.489376</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="11">
+      <c r="E89" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="10">
         <v>0.73864402988225619</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G89" s="11">
         <v>1.031845E-6</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>1.3969469999999999E-6</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="12">
         <v>28.806833000000001</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="13">
         <v>0.73864502753190275</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L89" s="14">
         <v>2.0294949999999999E-6</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M89" s="14">
         <v>2.7475989999999999E-6</v>
       </c>
-      <c r="N89" s="16">
+      <c r="N89" s="15">
         <v>27.961289000000001</v>
       </c>
-      <c r="P89" s="21">
+      <c r="P89" s="10">
         <v>0.73864163591424525</v>
       </c>
-      <c r="Q89" s="22">
+      <c r="Q89" s="11">
         <v>1.3621230000000001E-6</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="11">
         <v>1.8440879999999999E-6</v>
       </c>
-      <c r="S89" s="23">
+      <c r="S89" s="12">
         <v>42.958005999999997</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>96</v>
+      <c r="A90" s="20">
+        <v>0.73864270601852899</v>
       </c>
       <c r="B90">
         <v>2.9201840000000001E-7</v>
@@ -13586,43 +13245,43 @@
       <c r="D90">
         <v>30.200876999999998</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F90" s="14">
+      <c r="E90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="13">
         <v>0.73864301421832523</v>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="14">
         <v>1.6181439999999999E-8</v>
       </c>
-      <c r="H90" s="15">
+      <c r="H90" s="14">
         <v>2.1906979999999999E-8</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="15">
         <v>29.533455</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="10">
         <v>0.73864402228753734</v>
       </c>
-      <c r="L90" s="12">
+      <c r="L90" s="11">
         <v>1.024251E-6</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="11">
         <v>1.3866650000000001E-6</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N90" s="12">
         <v>27.982136000000001</v>
       </c>
-      <c r="P90" s="24">
+      <c r="P90" s="13">
         <v>0.73864365606272864</v>
       </c>
-      <c r="Q90" s="25">
+      <c r="Q90" s="14">
         <v>6.5802579999999998E-7</v>
       </c>
-      <c r="R90" s="25">
+      <c r="R90" s="14">
         <v>8.9085769999999999E-7</v>
       </c>
-      <c r="S90" s="26">
+      <c r="S90" s="15">
         <v>41.325329000000004</v>
       </c>
     </row>
@@ -13639,63 +13298,63 @@
         <f>MEDIAN(D81:D90)</f>
         <v>28.6087165</v>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="14">
         <f>MEDIAN(G81:G90)</f>
         <v>1.062539E-6</v>
       </c>
-      <c r="H91" s="15">
+      <c r="H91" s="14">
         <f>MEDIAN(H81:H90)</f>
         <v>1.4385019999999999E-6</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="15">
         <f>MEDIAN(I81:I90)</f>
         <v>29.088711</v>
       </c>
-      <c r="L91" s="15">
+      <c r="L91" s="14">
         <f>MEDIAN(L81:L90)</f>
         <v>9.6756515000000006E-7</v>
       </c>
-      <c r="M91" s="15">
+      <c r="M91" s="14">
         <f>MEDIAN(M81:M90)</f>
         <v>1.3099224999999998E-6</v>
       </c>
-      <c r="N91" s="16">
+      <c r="N91" s="15">
         <f>MEDIAN(N81:N90)</f>
         <v>27.792445000000001</v>
       </c>
-      <c r="Q91" s="15">
+      <c r="Q91" s="14">
         <f>MEDIAN(Q81:Q90)</f>
         <v>9.7787704999999996E-7</v>
       </c>
-      <c r="R91" s="15">
+      <c r="R91" s="14">
         <f>MEDIAN(R81:R90)</f>
         <v>1.3238829999999999E-6</v>
       </c>
-      <c r="S91" s="16">
+      <c r="S91" s="15">
         <f>MEDIAN(S81:S90)</f>
         <v>43.962209000000001</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>25</v>
+      <c r="E93" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>97</v>
+      <c r="A94" s="20">
+        <v>0.73864428136309801</v>
       </c>
       <c r="B94">
         <v>1.2833259999999999E-6</v>
@@ -13706,49 +13365,49 @@
       <c r="D94">
         <v>26.580504000000001</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F94" s="14">
+      <c r="E94" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="13">
         <v>0.73864363265871291</v>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="14">
         <v>6.3462180000000002E-7</v>
       </c>
-      <c r="H94" s="15">
+      <c r="H94" s="14">
         <v>8.5917259999999999E-7</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="15">
         <v>25.857233000000001</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K94" s="10">
         <v>0.73864403995524452</v>
       </c>
-      <c r="L94" s="12">
+      <c r="L94" s="11">
         <v>1.041918E-6</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M94" s="11">
         <v>1.4105840000000001E-6</v>
       </c>
-      <c r="N94" s="13">
+      <c r="N94" s="12">
         <v>25.313379999999999</v>
       </c>
-      <c r="P94" s="24">
+      <c r="P94" s="13">
         <v>0.73864627228507962</v>
       </c>
-      <c r="Q94" s="25">
+      <c r="Q94" s="14">
         <v>3.274248E-6</v>
       </c>
-      <c r="R94" s="25">
+      <c r="R94" s="14">
         <v>4.4327890000000001E-6</v>
       </c>
-      <c r="S94" s="26">
+      <c r="S94" s="15">
         <v>41.179878000000002</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>98</v>
+      <c r="A95" s="20">
+        <v>0.73864503692749495</v>
       </c>
       <c r="B95">
         <v>2.038891E-6</v>
@@ -13759,49 +13418,49 @@
       <c r="D95">
         <v>30.979104</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="11">
+      <c r="E95" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="10">
         <v>0.73864632598561508</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G95" s="11">
         <v>3.3279489999999998E-6</v>
       </c>
-      <c r="H95" s="12">
+      <c r="H95" s="11">
         <v>4.5054899999999996E-6</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="12">
         <v>26.636572999999999</v>
       </c>
-      <c r="K95" s="14">
+      <c r="K95" s="13">
         <v>0.73864290342514149</v>
       </c>
-      <c r="L95" s="15">
+      <c r="L95" s="14">
         <v>9.4611749999999994E-8</v>
       </c>
-      <c r="M95" s="15">
+      <c r="M95" s="14">
         <v>1.2808860000000001E-7</v>
       </c>
-      <c r="N95" s="16">
+      <c r="N95" s="15">
         <v>24.751142000000002</v>
       </c>
-      <c r="P95" s="21">
+      <c r="P95" s="10">
         <v>0.73864491708423674</v>
       </c>
-      <c r="Q95" s="22">
+      <c r="Q95" s="11">
         <v>1.919047E-6</v>
       </c>
-      <c r="R95" s="22">
+      <c r="R95" s="11">
         <v>2.5980719999999998E-6</v>
       </c>
-      <c r="S95" s="23">
+      <c r="S95" s="12">
         <v>40.861187999999999</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>99</v>
+      <c r="A96" s="20">
+        <v>0.73864302840345097</v>
       </c>
       <c r="B96">
         <v>3.0366560000000002E-8</v>
@@ -13812,49 +13471,49 @@
       <c r="D96">
         <v>38.569657999999997</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F96" s="14">
+      <c r="E96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="13">
         <v>0.7386453866579632</v>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="14">
         <v>2.3886209999999998E-6</v>
       </c>
-      <c r="H96" s="15">
+      <c r="H96" s="14">
         <v>3.2337960000000002E-6</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="15">
         <v>27.000415</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="10">
         <v>0.7386451405115817</v>
       </c>
-      <c r="L96" s="12">
+      <c r="L96" s="11">
         <v>2.1424750000000002E-6</v>
       </c>
-      <c r="M96" s="12">
+      <c r="M96" s="11">
         <v>2.900555E-6</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N96" s="12">
         <v>25.319559999999999</v>
       </c>
-      <c r="P96" s="24">
+      <c r="P96" s="13">
         <v>0.73864353182355325</v>
       </c>
-      <c r="Q96" s="25">
+      <c r="Q96" s="14">
         <v>5.3378670000000001E-7</v>
       </c>
-      <c r="R96" s="25">
+      <c r="R96" s="14">
         <v>7.226585E-7</v>
       </c>
-      <c r="S96" s="26">
+      <c r="S96" s="15">
         <v>43.707036000000002</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>100</v>
+      <c r="A97" s="20">
+        <v>0.73864435696365804</v>
       </c>
       <c r="B97">
         <v>1.3589269999999999E-6</v>
@@ -13865,49 +13524,49 @@
       <c r="D97">
         <v>26.185162999999999</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F97" s="11">
+      <c r="E97" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="10">
         <v>0.73864451621689797</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G97" s="11">
         <v>1.51818E-6</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H97" s="11">
         <v>2.0553640000000001E-6</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="12">
         <v>28.179241999999999</v>
       </c>
-      <c r="K97" s="14">
+      <c r="K97" s="13">
         <v>0.73864338981289135</v>
       </c>
-      <c r="L97" s="15">
+      <c r="L97" s="14">
         <v>3.9177599999999997E-7</v>
       </c>
-      <c r="M97" s="15">
+      <c r="M97" s="14">
         <v>5.3039970000000001E-7</v>
       </c>
-      <c r="N97" s="16">
+      <c r="N97" s="15">
         <v>24.891247</v>
       </c>
-      <c r="P97" s="21">
+      <c r="P97" s="10">
         <v>0.73864361849478799</v>
       </c>
-      <c r="Q97" s="22">
+      <c r="Q97" s="11">
         <v>6.2045789999999999E-7</v>
       </c>
-      <c r="R97" s="22">
+      <c r="R97" s="11">
         <v>8.3999700000000003E-7</v>
       </c>
-      <c r="S97" s="23">
+      <c r="S97" s="12">
         <v>37.610742000000002</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>101</v>
+      <c r="A98" s="20">
+        <v>0.73864283002817699</v>
       </c>
       <c r="B98">
         <v>1.680087E-7</v>
@@ -13918,49 +13577,49 @@
       <c r="D98">
         <v>25.306956</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="14">
+      <c r="E98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="13">
         <v>0.73864493626769501</v>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="14">
         <v>1.9382310000000001E-6</v>
       </c>
-      <c r="H98" s="15">
+      <c r="H98" s="14">
         <v>2.6240429999999999E-6</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="15">
         <v>25.643785000000001</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="10">
         <v>0.73864464081036441</v>
       </c>
-      <c r="L98" s="12">
+      <c r="L98" s="11">
         <v>1.6427730000000001E-6</v>
       </c>
-      <c r="M98" s="12">
+      <c r="M98" s="11">
         <v>2.2240429999999999E-6</v>
       </c>
-      <c r="N98" s="13">
+      <c r="N98" s="12">
         <v>25.272725999999999</v>
       </c>
-      <c r="P98" s="24">
+      <c r="P98" s="13">
         <v>0.73864422220877346</v>
       </c>
-      <c r="Q98" s="25">
+      <c r="Q98" s="14">
         <v>1.2241719999999999E-6</v>
       </c>
-      <c r="R98" s="25">
+      <c r="R98" s="14">
         <v>1.6573260000000001E-6</v>
       </c>
-      <c r="S98" s="26">
+      <c r="S98" s="15">
         <v>38.188008000000004</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>102</v>
+      <c r="A99" s="20">
+        <v>0.73864486564005705</v>
       </c>
       <c r="B99">
         <v>1.867603E-6</v>
@@ -13971,49 +13630,49 @@
       <c r="D99">
         <v>26.687197000000001</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99" s="11">
+      <c r="E99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="10">
         <v>0.73864426125833493</v>
       </c>
-      <c r="G99" s="12">
+      <c r="G99" s="11">
         <v>1.263221E-6</v>
       </c>
-      <c r="H99" s="12">
+      <c r="H99" s="11">
         <v>1.7101919999999999E-6</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="12">
         <v>25.770596000000001</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="13">
         <v>0.73864464459875889</v>
       </c>
-      <c r="L99" s="15">
+      <c r="L99" s="14">
         <v>1.6465620000000001E-6</v>
       </c>
-      <c r="M99" s="15">
+      <c r="M99" s="14">
         <v>2.229171E-6</v>
       </c>
-      <c r="N99" s="16">
+      <c r="N99" s="15">
         <v>25.035682999999999</v>
       </c>
-      <c r="P99" s="21">
+      <c r="P99" s="10">
         <v>0.73864417711841335</v>
       </c>
-      <c r="Q99" s="22">
+      <c r="Q99" s="11">
         <v>1.179082E-6</v>
       </c>
-      <c r="R99" s="22">
+      <c r="R99" s="11">
         <v>1.596281E-6</v>
       </c>
-      <c r="S99" s="23">
+      <c r="S99" s="12">
         <v>37.019849999999998</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>103</v>
+      <c r="A100" s="20">
+        <v>0.73864303559511302</v>
       </c>
       <c r="B100">
         <v>3.7558220000000002E-8</v>
@@ -14024,49 +13683,49 @@
       <c r="D100">
         <v>27.817361999999999</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="14">
+      <c r="E100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="13">
         <v>0.73864313544599935</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="14">
         <v>1.374091E-7</v>
       </c>
-      <c r="H100" s="15">
+      <c r="H100" s="14">
         <v>1.860291E-7</v>
       </c>
-      <c r="I100" s="16">
+      <c r="I100" s="15">
         <v>25.751422000000002</v>
       </c>
-      <c r="K100" s="11">
+      <c r="K100" s="10">
         <v>0.73864420914193119</v>
       </c>
-      <c r="L100" s="12">
+      <c r="L100" s="11">
         <v>1.2111050000000001E-6</v>
       </c>
-      <c r="M100" s="12">
+      <c r="M100" s="11">
         <v>1.6396350000000001E-6</v>
       </c>
-      <c r="N100" s="13">
+      <c r="N100" s="12">
         <v>25.537824000000001</v>
       </c>
-      <c r="P100" s="24">
+      <c r="P100" s="13">
         <v>0.73864559968632437</v>
       </c>
-      <c r="Q100" s="25">
+      <c r="Q100" s="14">
         <v>2.6016490000000001E-6</v>
       </c>
-      <c r="R100" s="25">
+      <c r="R100" s="14">
         <v>3.5222010000000002E-6</v>
       </c>
-      <c r="S100" s="26">
+      <c r="S100" s="15">
         <v>37.328350999999998</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>104</v>
+      <c r="A101" s="20">
+        <v>0.73864310524914001</v>
       </c>
       <c r="B101">
         <v>1.072122E-7</v>
@@ -14077,49 +13736,49 @@
       <c r="D101">
         <v>33.35445</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101" s="11">
+      <c r="E101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="10">
         <v>0.73864473948823417</v>
       </c>
-      <c r="G101" s="12">
+      <c r="G101" s="11">
         <v>1.7414510000000001E-6</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="11">
         <v>2.3576359999999998E-6</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101" s="12">
         <v>25.894316</v>
       </c>
-      <c r="K101" s="14">
+      <c r="K101" s="13">
         <v>0.73864454621558739</v>
       </c>
-      <c r="L101" s="15">
+      <c r="L101" s="14">
         <v>1.5481789999999999E-6</v>
       </c>
-      <c r="M101" s="15">
+      <c r="M101" s="14">
         <v>2.0959769999999999E-6</v>
       </c>
-      <c r="N101" s="16">
+      <c r="N101" s="15">
         <v>25.123197999999999</v>
       </c>
-      <c r="P101" s="21">
+      <c r="P101" s="10">
         <v>0.73864374924931409</v>
       </c>
-      <c r="Q101" s="22">
+      <c r="Q101" s="11">
         <v>7.5121239999999999E-7</v>
       </c>
-      <c r="R101" s="22">
+      <c r="R101" s="11">
         <v>1.017017E-6</v>
       </c>
-      <c r="S101" s="23">
+      <c r="S101" s="12">
         <v>36.491501999999997</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>105</v>
+      <c r="A102" s="20">
+        <v>0.73864309335850997</v>
       </c>
       <c r="B102">
         <v>9.5321619999999996E-8</v>
@@ -14130,49 +13789,49 @@
       <c r="D102">
         <v>27.829234</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="14">
+      <c r="E102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="13">
         <v>0.73864475076187686</v>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="14">
         <v>1.752725E-6</v>
       </c>
-      <c r="H102" s="15">
+      <c r="H102" s="14">
         <v>2.3728989999999999E-6</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I102" s="15">
         <v>25.715648000000002</v>
       </c>
-      <c r="K102" s="11">
+      <c r="K102" s="10">
         <v>0.73864394235265329</v>
       </c>
-      <c r="L102" s="12">
+      <c r="L102" s="11">
         <v>9.4431580000000004E-7</v>
       </c>
-      <c r="M102" s="12">
+      <c r="M102" s="11">
         <v>1.2784469999999999E-6</v>
       </c>
-      <c r="N102" s="13">
+      <c r="N102" s="12">
         <v>25.490573999999999</v>
       </c>
-      <c r="P102" s="24">
+      <c r="P102" s="13">
         <v>0.73864565767771118</v>
       </c>
-      <c r="Q102" s="25">
+      <c r="Q102" s="14">
         <v>2.659641E-6</v>
       </c>
-      <c r="R102" s="25">
+      <c r="R102" s="14">
         <v>3.600712E-6</v>
       </c>
-      <c r="S102" s="26">
+      <c r="S102" s="15">
         <v>38.745668999999999</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>106</v>
+      <c r="A103" s="20">
+        <v>0.73864507316115702</v>
       </c>
       <c r="B103">
         <v>2.0751240000000001E-6</v>
@@ -14183,43 +13842,43 @@
       <c r="D103">
         <v>28.053339000000001</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="11">
+      <c r="E103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="10">
         <v>0.7386460557498421</v>
       </c>
-      <c r="G103" s="12">
+      <c r="G103" s="11">
         <v>3.0577130000000001E-6</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="11">
         <v>4.1396360000000003E-6</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="12">
         <v>26.001093999999998</v>
       </c>
-      <c r="K103" s="14">
+      <c r="K103" s="13">
         <v>0.73864492448958285</v>
       </c>
-      <c r="L103" s="15">
+      <c r="L103" s="14">
         <v>1.9264529999999999E-6</v>
       </c>
-      <c r="M103" s="15">
+      <c r="M103" s="14">
         <v>2.6080970000000002E-6</v>
       </c>
-      <c r="N103" s="16">
+      <c r="N103" s="15">
         <v>25.153926999999999</v>
       </c>
-      <c r="P103" s="21">
+      <c r="P103" s="10">
         <v>0.73864391353084735</v>
       </c>
-      <c r="Q103" s="22">
+      <c r="Q103" s="11">
         <v>9.1549400000000001E-7</v>
       </c>
-      <c r="R103" s="22">
+      <c r="R103" s="11">
         <v>1.2394270000000001E-6</v>
       </c>
-      <c r="S103" s="23">
+      <c r="S103" s="12">
         <v>38.016083999999999</v>
       </c>
     </row>
@@ -14236,63 +13895,63 @@
         <f>MEDIAN(D94:D103)</f>
         <v>27.823298000000001</v>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="14">
         <f>MEDIAN(G94:G103)</f>
         <v>1.7470880000000001E-6</v>
       </c>
-      <c r="H104" s="15">
+      <c r="H104" s="14">
         <f>MEDIAN(H94:H103)</f>
         <v>2.3652674999999999E-6</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="15">
         <f>MEDIAN(I94:I103)</f>
         <v>25.875774499999999</v>
       </c>
-      <c r="L104" s="15">
+      <c r="L104" s="14">
         <f>MEDIAN(L94:L103)</f>
         <v>1.379642E-6</v>
       </c>
-      <c r="M104" s="15">
+      <c r="M104" s="14">
         <f>MEDIAN(M94:M103)</f>
         <v>1.8678059999999999E-6</v>
       </c>
-      <c r="N104" s="16">
+      <c r="N104" s="15">
         <f>MEDIAN(N94:N103)</f>
         <v>25.213326500000001</v>
       </c>
-      <c r="Q104" s="17">
+      <c r="Q104" s="16">
         <f>MEDIAN(Q94:Q103)</f>
         <v>1.201627E-6</v>
       </c>
-      <c r="R104" s="17">
+      <c r="R104" s="16">
         <f>MEDIAN(R94:R103)</f>
         <v>1.6268035E-6</v>
       </c>
-      <c r="S104" s="18">
+      <c r="S104" s="17">
         <f>MEDIAN(S94:S103)</f>
         <v>38.102046000000001</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>25</v>
+      <c r="E106" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>107</v>
+      <c r="A107" s="20">
+        <v>0.73864374527430798</v>
       </c>
       <c r="B107">
         <v>7.4723739999999995E-7</v>
@@ -14303,49 +13962,49 @@
       <c r="D107">
         <v>23.365589</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" s="11">
+      <c r="E107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="10">
         <v>0.73864424669649054</v>
       </c>
-      <c r="G107" s="12">
+      <c r="G107" s="11">
         <v>1.24866E-6</v>
       </c>
-      <c r="H107" s="12">
+      <c r="H107" s="11">
         <v>1.690478E-6</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="12">
         <v>24.155916000000001</v>
       </c>
-      <c r="K107" s="14">
+      <c r="K107" s="13">
         <v>0.73864307179664557</v>
       </c>
-      <c r="L107" s="15">
+      <c r="L107" s="14">
         <v>7.3759759999999996E-8</v>
       </c>
-      <c r="M107" s="15">
+      <c r="M107" s="14">
         <v>9.9858459999999994E-8</v>
       </c>
-      <c r="N107" s="16">
+      <c r="N107" s="15">
         <v>23.379082</v>
       </c>
-      <c r="P107" s="21">
+      <c r="P107" s="10">
         <v>0.73864307910449212</v>
       </c>
-      <c r="Q107" s="22">
+      <c r="Q107" s="11">
         <v>8.10676E-8</v>
       </c>
-      <c r="R107" s="22">
+      <c r="R107" s="11">
         <v>1.0975209999999999E-7</v>
       </c>
-      <c r="S107" s="23">
+      <c r="S107" s="12">
         <v>38.469062000000001</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>108</v>
+      <c r="A108" s="20">
+        <v>0.73864415064282796</v>
       </c>
       <c r="B108">
         <v>1.1526059999999999E-6</v>
@@ -14356,49 +14015,49 @@
       <c r="D108">
         <v>24.011558999999998</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108" s="14">
+      <c r="E108" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="13">
         <v>0.73864464267239494</v>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="14">
         <v>1.644636E-6</v>
       </c>
-      <c r="H108" s="15">
+      <c r="H108" s="14">
         <v>2.226563E-6</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="15">
         <v>24.392042</v>
       </c>
-      <c r="K108" s="11">
+      <c r="K108" s="10">
         <v>0.73864617345168349</v>
       </c>
-      <c r="L108" s="12">
+      <c r="L108" s="11">
         <v>3.1754149999999999E-6</v>
       </c>
-      <c r="M108" s="12">
+      <c r="M108" s="11">
         <v>4.2989840000000002E-6</v>
       </c>
-      <c r="N108" s="13">
+      <c r="N108" s="12">
         <v>23.218492999999999</v>
       </c>
-      <c r="P108" s="24">
+      <c r="P108" s="13">
         <v>0.73864496684697356</v>
       </c>
-      <c r="Q108" s="25">
+      <c r="Q108" s="14">
         <v>1.96881E-6</v>
       </c>
-      <c r="R108" s="25">
+      <c r="R108" s="14">
         <v>2.6654419999999998E-6</v>
       </c>
-      <c r="S108" s="26">
+      <c r="S108" s="15">
         <v>38.849676000000002</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>109</v>
+      <c r="A109" s="20">
+        <v>0.73864423356633002</v>
       </c>
       <c r="B109">
         <v>1.235529E-6</v>
@@ -14409,49 +14068,49 @@
       <c r="D109">
         <v>37.724195999999999</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109" s="11">
+      <c r="E109" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="10">
         <v>0.73864469845099812</v>
       </c>
-      <c r="G109" s="12">
+      <c r="G109" s="11">
         <v>1.700414E-6</v>
       </c>
-      <c r="H109" s="12">
+      <c r="H109" s="11">
         <v>2.3020780000000002E-6</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="12">
         <v>24.863620999999998</v>
       </c>
-      <c r="K109" s="14">
+      <c r="K109" s="13">
         <v>0.73864449455562853</v>
       </c>
-      <c r="L109" s="15">
+      <c r="L109" s="14">
         <v>1.4965190000000001E-6</v>
       </c>
-      <c r="M109" s="15">
+      <c r="M109" s="14">
         <v>2.0260379999999999E-6</v>
       </c>
-      <c r="N109" s="16">
+      <c r="N109" s="15">
         <v>23.414936999999998</v>
       </c>
-      <c r="P109" s="21">
+      <c r="P109" s="10">
         <v>0.73864306504974708</v>
       </c>
-      <c r="Q109" s="22">
+      <c r="Q109" s="11">
         <v>6.7012860000000001E-8</v>
       </c>
-      <c r="R109" s="22">
+      <c r="R109" s="11">
         <v>9.0724279999999996E-8</v>
       </c>
-      <c r="S109" s="23">
+      <c r="S109" s="12">
         <v>43.084283999999997</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>110</v>
+      <c r="A110" s="20">
+        <v>0.73864509219070096</v>
       </c>
       <c r="B110">
         <v>2.0941540000000002E-6</v>
@@ -14462,49 +14121,49 @@
       <c r="D110">
         <v>24.122612</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110" s="14">
+      <c r="E110" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="13">
         <v>0.73864524787166386</v>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="14">
         <v>2.2498349999999999E-6</v>
       </c>
-      <c r="H110" s="15">
+      <c r="H110" s="14">
         <v>3.0459029999999998E-6</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="15">
         <v>24.347004999999999</v>
       </c>
-      <c r="K110" s="11">
+      <c r="K110" s="10">
         <v>0.73864495786940154</v>
       </c>
-      <c r="L110" s="12">
+      <c r="L110" s="11">
         <v>1.9598330000000001E-6</v>
       </c>
-      <c r="M110" s="12">
+      <c r="M110" s="11">
         <v>2.6532880000000002E-6</v>
       </c>
-      <c r="N110" s="13">
+      <c r="N110" s="12">
         <v>23.226738999999998</v>
       </c>
-      <c r="P110" s="24">
+      <c r="P110" s="13">
         <v>0.7386428327480461</v>
       </c>
-      <c r="Q110" s="25">
+      <c r="Q110" s="14">
         <v>1.6528880000000001E-7</v>
       </c>
-      <c r="R110" s="25">
+      <c r="R110" s="14">
         <v>2.237737E-7</v>
       </c>
-      <c r="S110" s="26">
+      <c r="S110" s="15">
         <v>42.238715999999997</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>111</v>
+      <c r="A111" s="20">
+        <v>0.73864355305677298</v>
       </c>
       <c r="B111">
         <v>5.5501989999999996E-7</v>
@@ -14515,49 +14174,49 @@
       <c r="D111">
         <v>23.627652000000001</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="11">
+      <c r="E111" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="10">
         <v>0.73864390581472927</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>9.0777779999999995E-7</v>
       </c>
-      <c r="H111" s="12">
+      <c r="H111" s="11">
         <v>1.2289800000000001E-6</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="12">
         <v>24.262152</v>
       </c>
-      <c r="K111" s="14">
+      <c r="K111" s="13">
         <v>0.73864370720666195</v>
       </c>
-      <c r="L111" s="15">
+      <c r="L111" s="14">
         <v>7.0916979999999995E-7</v>
       </c>
-      <c r="M111" s="15">
+      <c r="M111" s="14">
         <v>9.6009810000000002E-7</v>
       </c>
-      <c r="N111" s="16">
+      <c r="N111" s="15">
         <v>23.585280000000001</v>
       </c>
-      <c r="P111" s="21">
+      <c r="P111" s="10">
         <v>0.73864341462238747</v>
       </c>
-      <c r="Q111" s="22">
+      <c r="Q111" s="11">
         <v>4.1658549999999998E-7</v>
       </c>
-      <c r="R111" s="22">
+      <c r="R111" s="11">
         <v>5.6398760000000004E-7</v>
       </c>
-      <c r="S111" s="23">
+      <c r="S111" s="12">
         <v>38.721797000000002</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>112</v>
+      <c r="A112" s="20">
+        <v>0.73864375669377003</v>
       </c>
       <c r="B112">
         <v>7.5865689999999997E-7</v>
@@ -14568,49 +14227,49 @@
       <c r="D112">
         <v>23.668054000000001</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F112" s="14">
+      <c r="E112" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="13">
         <v>0.73864319476953022</v>
       </c>
-      <c r="G112" s="15">
+      <c r="G112" s="14">
         <v>1.967326E-7</v>
       </c>
-      <c r="H112" s="15">
+      <c r="H112" s="14">
         <v>2.6634329999999999E-7</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="15">
         <v>24.568062000000001</v>
       </c>
-      <c r="K112" s="11">
+      <c r="K112" s="10">
         <v>0.73864429041206625</v>
       </c>
-      <c r="L112" s="12">
+      <c r="L112" s="11">
         <v>1.2923750000000001E-6</v>
       </c>
-      <c r="M112" s="12">
+      <c r="M112" s="11">
         <v>1.7496609999999999E-6</v>
       </c>
-      <c r="N112" s="13">
+      <c r="N112" s="12">
         <v>24.077197999999999</v>
       </c>
-      <c r="P112" s="24">
+      <c r="P112" s="13">
         <v>0.7386437686766828</v>
       </c>
-      <c r="Q112" s="25">
+      <c r="Q112" s="14">
         <v>7.7063980000000004E-7</v>
       </c>
-      <c r="R112" s="25">
+      <c r="R112" s="14">
         <v>1.0433180000000001E-6</v>
       </c>
-      <c r="S112" s="26">
+      <c r="S112" s="15">
         <v>33.308717000000001</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>113</v>
+      <c r="A113" s="20">
+        <v>0.73864441312707496</v>
       </c>
       <c r="B113">
         <v>1.4150899999999999E-6</v>
@@ -14621,49 +14280,49 @@
       <c r="D113">
         <v>26.435568</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="11">
+      <c r="E113" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="10">
         <v>0.73864439867504394</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>1.400638E-6</v>
       </c>
-      <c r="H113" s="12">
+      <c r="H113" s="11">
         <v>1.896232E-6</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="12">
         <v>24.213052999999999</v>
       </c>
-      <c r="K113" s="14">
+      <c r="K113" s="13">
         <v>0.73864375930418191</v>
       </c>
-      <c r="L113" s="15">
+      <c r="L113" s="14">
         <v>7.6126729999999999E-7</v>
       </c>
-      <c r="M113" s="15">
+      <c r="M113" s="14">
         <v>1.0306299999999999E-6</v>
       </c>
-      <c r="N113" s="16">
+      <c r="N113" s="15">
         <v>23.81804</v>
       </c>
-      <c r="P113" s="21">
+      <c r="P113" s="10">
         <v>0.73864370458026485</v>
       </c>
-      <c r="Q113" s="22">
+      <c r="Q113" s="11">
         <v>7.0654340000000002E-7</v>
       </c>
-      <c r="R113" s="22">
+      <c r="R113" s="11">
         <v>9.5654239999999993E-7</v>
       </c>
-      <c r="S113" s="23">
+      <c r="S113" s="12">
         <v>40.628382999999999</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>114</v>
+      <c r="A114" s="20">
+        <v>0.73864352176459802</v>
       </c>
       <c r="B114">
         <v>5.2372769999999996E-7</v>
@@ -14674,49 +14333,49 @@
       <c r="D114">
         <v>27.140196</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="14">
+      <c r="E114" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="13">
         <v>0.73864465894061282</v>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="14">
         <v>1.660904E-6</v>
       </c>
-      <c r="H114" s="15">
+      <c r="H114" s="14">
         <v>2.248588E-6</v>
       </c>
-      <c r="I114" s="16">
+      <c r="I114" s="15">
         <v>24.649628</v>
       </c>
-      <c r="K114" s="11">
+      <c r="K114" s="10">
         <v>0.73864466835536724</v>
       </c>
-      <c r="L114" s="12">
+      <c r="L114" s="11">
         <v>1.670318E-6</v>
       </c>
-      <c r="M114" s="12">
+      <c r="M114" s="11">
         <v>2.2613339999999999E-6</v>
       </c>
-      <c r="N114" s="13">
+      <c r="N114" s="12">
         <v>23.313033999999998</v>
       </c>
-      <c r="P114" s="24">
+      <c r="P114" s="13">
         <v>0.73864372955340041</v>
       </c>
-      <c r="Q114" s="25">
+      <c r="Q114" s="14">
         <v>7.3151650000000004E-7</v>
       </c>
-      <c r="R114" s="25">
+      <c r="R114" s="14">
         <v>9.9035190000000009E-7</v>
       </c>
-      <c r="S114" s="26">
+      <c r="S114" s="15">
         <v>38.801369000000001</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>115</v>
+      <c r="A115" s="20">
+        <v>0.73864443982723205</v>
       </c>
       <c r="B115">
         <v>1.44179E-6</v>
@@ -14727,49 +14386,49 @@
       <c r="D115">
         <v>29.188006000000001</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="11">
+      <c r="E115" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="10">
         <v>0.73864450862050823</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="11">
         <v>1.510584E-6</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="11">
         <v>2.0450790000000002E-6</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="12">
         <v>24.452660000000002</v>
       </c>
-      <c r="K115" s="14">
+      <c r="K115" s="13">
         <v>0.73864484971440159</v>
       </c>
-      <c r="L115" s="15">
+      <c r="L115" s="14">
         <v>1.851678E-6</v>
       </c>
-      <c r="M115" s="15">
+      <c r="M115" s="14">
         <v>2.5068639999999999E-6</v>
       </c>
-      <c r="N115" s="16">
+      <c r="N115" s="15">
         <v>23.539763000000001</v>
       </c>
-      <c r="P115" s="21">
+      <c r="P115" s="10">
         <v>0.73864456438364723</v>
       </c>
-      <c r="Q115" s="22">
+      <c r="Q115" s="11">
         <v>1.566347E-6</v>
       </c>
-      <c r="R115" s="22">
+      <c r="R115" s="11">
         <v>2.120573E-6</v>
       </c>
-      <c r="S115" s="23">
+      <c r="S115" s="12">
         <v>37.281075000000001</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>116</v>
+      <c r="A116" s="20">
+        <v>0.73864288552600099</v>
       </c>
       <c r="B116">
         <v>1.125109E-7</v>
@@ -14780,43 +14439,43 @@
       <c r="D116">
         <v>23.757736999999999</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F116" s="14">
+      <c r="E116" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="13">
         <v>0.7386428794600749</v>
       </c>
-      <c r="G116" s="15">
+      <c r="G116" s="14">
         <v>1.1857680000000001E-7</v>
       </c>
-      <c r="H116" s="15">
+      <c r="H116" s="14">
         <v>1.605333E-7</v>
       </c>
-      <c r="I116" s="16">
+      <c r="I116" s="15">
         <v>24.226877999999999</v>
       </c>
-      <c r="K116" s="11">
+      <c r="K116" s="10">
         <v>0.73864391303735177</v>
       </c>
-      <c r="L116" s="12">
+      <c r="L116" s="11">
         <v>9.1500050000000004E-7</v>
       </c>
-      <c r="M116" s="12">
+      <c r="M116" s="11">
         <v>1.238759E-6</v>
       </c>
-      <c r="N116" s="13">
+      <c r="N116" s="12">
         <v>23.354282999999999</v>
       </c>
-      <c r="P116" s="24">
+      <c r="P116" s="13">
         <v>0.73864482870271486</v>
       </c>
-      <c r="Q116" s="25">
+      <c r="Q116" s="14">
         <v>1.830666E-6</v>
       </c>
-      <c r="R116" s="25">
+      <c r="R116" s="14">
         <v>2.4784179999999999E-6</v>
       </c>
-      <c r="S116" s="26">
+      <c r="S116" s="15">
         <v>23.422691</v>
       </c>
     </row>
@@ -14833,63 +14492,63 @@
         <f>MEDIAN(D107:D116)</f>
         <v>24.067085499999997</v>
       </c>
-      <c r="G117" s="15">
+      <c r="G117" s="14">
         <f>MEDIAN(G107:G116)</f>
         <v>1.455611E-6</v>
       </c>
-      <c r="H117" s="15">
+      <c r="H117" s="14">
         <f>MEDIAN(H107:H116)</f>
         <v>1.9706555E-6</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="15">
         <f>MEDIAN(I107:I116)</f>
         <v>24.3695235</v>
       </c>
-      <c r="L117" s="15">
+      <c r="L117" s="14">
         <f>MEDIAN(L107:L116)</f>
         <v>1.394447E-6</v>
       </c>
-      <c r="M117" s="15">
+      <c r="M117" s="14">
         <f>MEDIAN(M107:M116)</f>
         <v>1.8878494999999999E-6</v>
       </c>
-      <c r="N117" s="16">
+      <c r="N117" s="15">
         <f>MEDIAN(N107:N116)</f>
         <v>23.397009499999999</v>
       </c>
-      <c r="Q117" s="17">
+      <c r="Q117" s="16">
         <f>MEDIAN(Q107:Q116)</f>
         <v>7.1902995000000003E-7</v>
       </c>
-      <c r="R117" s="17">
+      <c r="R117" s="16">
         <f>MEDIAN(R107:R116)</f>
         <v>9.7344715000000001E-7</v>
       </c>
-      <c r="S117" s="18">
+      <c r="S117" s="17">
         <f>MEDIAN(S107:S116)</f>
         <v>38.761583000000002</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B119">
         <v>9</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>25</v>
+      <c r="E119" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>117</v>
+      <c r="A120" s="20">
+        <v>0.738644987910548</v>
       </c>
       <c r="B120">
         <v>1.9898739999999999E-6</v>
@@ -14900,49 +14559,49 @@
       <c r="D120">
         <v>24.359867000000001</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="14">
+      <c r="E120" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="13">
         <v>0.73864359413771019</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="14">
         <v>5.9610080000000004E-7</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="14">
         <v>8.0702159999999996E-7</v>
       </c>
-      <c r="I120" s="16">
+      <c r="I120" s="15">
         <v>24.382795000000002</v>
       </c>
-      <c r="K120" s="11">
+      <c r="K120" s="10">
         <v>0.73864361064528661</v>
       </c>
-      <c r="L120" s="12">
+      <c r="L120" s="11">
         <v>6.1260840000000005E-7</v>
       </c>
-      <c r="M120" s="12">
+      <c r="M120" s="11">
         <v>8.2937010000000001E-7</v>
       </c>
-      <c r="N120" s="13">
+      <c r="N120" s="12">
         <v>23.609513</v>
       </c>
-      <c r="P120" s="24">
+      <c r="P120" s="13">
         <v>0.73864501586532616</v>
       </c>
-      <c r="Q120" s="25">
+      <c r="Q120" s="14">
         <v>2.0178279999999999E-6</v>
       </c>
-      <c r="R120" s="25">
+      <c r="R120" s="14">
         <v>2.7318050000000002E-6</v>
       </c>
-      <c r="S120" s="26">
+      <c r="S120" s="15">
         <v>23.672333999999999</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>118</v>
+      <c r="A121" s="20">
+        <v>0.73864467273627799</v>
       </c>
       <c r="B121">
         <v>1.674699E-6</v>
@@ -14953,49 +14612,49 @@
       <c r="D121">
         <v>28.432493000000001</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F121" s="11">
+      <c r="E121" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="10">
         <v>0.73864340509646875</v>
       </c>
-      <c r="G121" s="12">
+      <c r="G121" s="11">
         <v>4.0705960000000002E-7</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="11">
         <v>5.5109110000000001E-7</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="12">
         <v>24.454070000000002</v>
       </c>
-      <c r="K121" s="14">
+      <c r="K121" s="13">
         <v>0.73864340200314837</v>
       </c>
-      <c r="L121" s="15">
+      <c r="L121" s="14">
         <v>4.0396630000000001E-7</v>
       </c>
-      <c r="M121" s="15">
+      <c r="M121" s="14">
         <v>5.4690330000000001E-7</v>
       </c>
-      <c r="N121" s="16">
+      <c r="N121" s="15">
         <v>23.430655000000002</v>
       </c>
-      <c r="P121" s="21">
+      <c r="P121" s="10">
         <v>0.73864424861229716</v>
       </c>
-      <c r="Q121" s="22">
+      <c r="Q121" s="11">
         <v>1.2505750000000001E-6</v>
       </c>
-      <c r="R121" s="22">
+      <c r="R121" s="11">
         <v>1.693071E-6</v>
       </c>
-      <c r="S121" s="23">
+      <c r="S121" s="12">
         <v>23.50468</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>119</v>
+      <c r="A122" s="20">
+        <v>0.73864384106683301</v>
       </c>
       <c r="B122">
         <v>8.4302989999999995E-7</v>
@@ -15006,49 +14665,49 @@
       <c r="D122">
         <v>26.325842999999999</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="14">
+      <c r="E122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="13">
         <v>0.73864367216153559</v>
       </c>
-      <c r="G122" s="15">
+      <c r="G122" s="14">
         <v>6.7412460000000001E-7</v>
       </c>
-      <c r="H122" s="15">
+      <c r="H122" s="14">
         <v>9.1265289999999999E-7</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="15">
         <v>24.297827999999999</v>
       </c>
-      <c r="K122" s="11">
+      <c r="K122" s="10">
         <v>0.73864534589033293</v>
       </c>
-      <c r="L122" s="12">
+      <c r="L122" s="11">
         <v>2.3478530000000002E-6</v>
       </c>
-      <c r="M122" s="12">
+      <c r="M122" s="11">
         <v>3.1786040000000001E-6</v>
       </c>
-      <c r="N122" s="13">
+      <c r="N122" s="12">
         <v>23.584538999999999</v>
       </c>
-      <c r="P122" s="24">
+      <c r="P122" s="13">
         <v>0.73864525635166767</v>
       </c>
-      <c r="Q122" s="25">
+      <c r="Q122" s="14">
         <v>2.2583149999999998E-6</v>
       </c>
-      <c r="R122" s="25">
+      <c r="R122" s="14">
         <v>3.0573829999999999E-6</v>
       </c>
-      <c r="S122" s="26">
+      <c r="S122" s="15">
         <v>23.571953000000001</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>120</v>
+      <c r="A123" s="20">
+        <v>0.73864378492452298</v>
       </c>
       <c r="B123">
         <v>7.8688759999999995E-7</v>
@@ -15059,49 +14718,49 @@
       <c r="D123">
         <v>24.952341000000001</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="11">
+      <c r="E123" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="10">
         <v>0.73864442001721353</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="11">
         <v>1.42198E-6</v>
       </c>
-      <c r="H123" s="12">
+      <c r="H123" s="11">
         <v>1.9251250000000001E-6</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="12">
         <v>24.486691</v>
       </c>
-      <c r="K123" s="14">
+      <c r="K123" s="13">
         <v>0.73864521817423201</v>
       </c>
-      <c r="L123" s="15">
+      <c r="L123" s="14">
         <v>2.2201370000000001E-6</v>
       </c>
-      <c r="M123" s="15">
+      <c r="M123" s="14">
         <v>3.005697E-6</v>
       </c>
-      <c r="N123" s="16">
+      <c r="N123" s="15">
         <v>23.498660000000001</v>
       </c>
-      <c r="P123" s="21">
+      <c r="P123" s="10">
         <v>0.73864469317906123</v>
       </c>
-      <c r="Q123" s="22">
+      <c r="Q123" s="11">
         <v>1.695142E-6</v>
       </c>
-      <c r="R123" s="22">
+      <c r="R123" s="11">
         <v>2.2949409999999999E-6</v>
       </c>
-      <c r="S123" s="23">
+      <c r="S123" s="12">
         <v>23.062308999999999</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>121</v>
+      <c r="A124" s="20">
+        <v>0.73864383722997395</v>
       </c>
       <c r="B124">
         <v>8.3919310000000001E-7</v>
@@ -15112,49 +14771,49 @@
       <c r="D124">
         <v>24.728214999999999</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="14">
+      <c r="E124" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="13">
         <v>0.73864304276500226</v>
       </c>
-      <c r="G124" s="15">
+      <c r="G124" s="14">
         <v>4.4728109999999997E-8</v>
       </c>
-      <c r="H124" s="15">
+      <c r="H124" s="14">
         <v>6.0554439999999995E-8</v>
       </c>
-      <c r="I124" s="16">
+      <c r="I124" s="15">
         <v>24.778903</v>
       </c>
-      <c r="K124" s="11">
+      <c r="K124" s="10">
         <v>0.73864515379512652</v>
       </c>
-      <c r="L124" s="12">
+      <c r="L124" s="11">
         <v>2.1557579999999999E-6</v>
       </c>
-      <c r="M124" s="12">
+      <c r="M124" s="11">
         <v>2.9185390000000001E-6</v>
       </c>
-      <c r="N124" s="13">
+      <c r="N124" s="12">
         <v>23.659217999999999</v>
       </c>
-      <c r="P124" s="24">
+      <c r="P124" s="13">
         <v>0.73864467101786313</v>
       </c>
-      <c r="Q124" s="25">
+      <c r="Q124" s="14">
         <v>1.672981E-6</v>
       </c>
-      <c r="R124" s="25">
+      <c r="R124" s="14">
         <v>2.2649390000000001E-6</v>
       </c>
-      <c r="S124" s="26">
+      <c r="S124" s="15">
         <v>23.437472</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>122</v>
+      <c r="A125" s="20">
+        <v>0.73864313273885696</v>
       </c>
       <c r="B125">
         <v>1.3470200000000001E-7</v>
@@ -15165,49 +14824,49 @@
       <c r="D125">
         <v>30.085533000000002</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="11">
+      <c r="E125" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="10">
         <v>0.73864439377124158</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="11">
         <v>1.3957339999999999E-6</v>
       </c>
-      <c r="H125" s="12">
+      <c r="H125" s="11">
         <v>1.8895930000000001E-6</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="12">
         <v>24.195136999999999</v>
       </c>
-      <c r="K125" s="14">
+      <c r="K125" s="13">
         <v>0.73864527510596145</v>
       </c>
-      <c r="L125" s="15">
+      <c r="L125" s="14">
         <v>2.277069E-6</v>
       </c>
-      <c r="M125" s="15">
+      <c r="M125" s="14">
         <v>3.0827740000000001E-6</v>
       </c>
-      <c r="N125" s="16">
+      <c r="N125" s="15">
         <v>23.252077</v>
       </c>
-      <c r="P125" s="21">
+      <c r="P125" s="10">
         <v>0.73864475495638071</v>
       </c>
-      <c r="Q125" s="22">
+      <c r="Q125" s="11">
         <v>1.756919E-6</v>
       </c>
-      <c r="R125" s="22">
+      <c r="R125" s="11">
         <v>2.378577E-6</v>
       </c>
-      <c r="S125" s="23">
+      <c r="S125" s="12">
         <v>24.271877</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>123</v>
+      <c r="A126" s="20">
+        <v>0.73864600232384203</v>
       </c>
       <c r="B126">
         <v>3.004287E-6</v>
@@ -15218,49 +14877,49 @@
       <c r="D126">
         <v>26.963166000000001</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126" s="14">
+      <c r="E126" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="13">
         <v>0.73864389393272734</v>
       </c>
-      <c r="G126" s="15">
+      <c r="G126" s="14">
         <v>8.9589579999999998E-7</v>
       </c>
-      <c r="H126" s="15">
+      <c r="H126" s="14">
         <v>1.2128939999999999E-6</v>
       </c>
-      <c r="I126" s="16">
+      <c r="I126" s="15">
         <v>24.209599000000001</v>
       </c>
-      <c r="K126" s="11">
+      <c r="K126" s="10">
         <v>0.73864532127178728</v>
       </c>
-      <c r="L126" s="12">
+      <c r="L126" s="11">
         <v>2.323235E-6</v>
       </c>
-      <c r="M126" s="12">
+      <c r="M126" s="11">
         <v>3.1452739999999999E-6</v>
       </c>
-      <c r="N126" s="13">
+      <c r="N126" s="12">
         <v>23.650507000000001</v>
       </c>
-      <c r="P126" s="24">
+      <c r="P126" s="13">
         <v>0.73864382164999076</v>
       </c>
-      <c r="Q126" s="25">
+      <c r="Q126" s="14">
         <v>8.2361310000000002E-7</v>
       </c>
-      <c r="R126" s="25">
+      <c r="R126" s="14">
         <v>1.115035E-6</v>
       </c>
-      <c r="S126" s="26">
+      <c r="S126" s="15">
         <v>27.882521000000001</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>124</v>
+      <c r="A127" s="20">
+        <v>0.73864345847431401</v>
       </c>
       <c r="B127">
         <v>4.604374E-7</v>
@@ -15271,49 +14930,49 @@
       <c r="D127">
         <v>26.999054000000001</v>
       </c>
-      <c r="E127" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="11">
+      <c r="E127" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="10">
         <v>0.73864499707512499</v>
       </c>
-      <c r="G127" s="12">
+      <c r="G127" s="11">
         <v>1.999038E-6</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="11">
         <v>2.7063659999999999E-6</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127" s="12">
         <v>24.218335</v>
       </c>
-      <c r="K127" s="14">
+      <c r="K127" s="13">
         <v>0.73864413158511188</v>
       </c>
-      <c r="L127" s="15">
+      <c r="L127" s="14">
         <v>1.1335480000000001E-6</v>
       </c>
-      <c r="M127" s="15">
+      <c r="M127" s="14">
         <v>1.534636E-6</v>
       </c>
-      <c r="N127" s="16">
+      <c r="N127" s="15">
         <v>23.268882999999999</v>
       </c>
-      <c r="P127" s="21">
+      <c r="P127" s="10">
         <v>0.73864479550667494</v>
       </c>
-      <c r="Q127" s="22">
+      <c r="Q127" s="11">
         <v>1.79747E-6</v>
       </c>
-      <c r="R127" s="22">
+      <c r="R127" s="11">
         <v>2.4334759999999998E-6</v>
       </c>
-      <c r="S127" s="23">
+      <c r="S127" s="12">
         <v>23.424173</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>125</v>
+      <c r="A128" s="20">
+        <v>0.73864427872207505</v>
       </c>
       <c r="B128">
         <v>1.2806850000000001E-6</v>
@@ -15324,49 +14983,49 @@
       <c r="D128">
         <v>26.300881</v>
       </c>
-      <c r="E128" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="14">
+      <c r="E128" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="13">
         <v>0.73864460680067145</v>
       </c>
-      <c r="G128" s="15">
+      <c r="G128" s="14">
         <v>1.608764E-6</v>
       </c>
-      <c r="H128" s="15">
+      <c r="H128" s="14">
         <v>2.1779989999999999E-6</v>
       </c>
-      <c r="I128" s="16">
+      <c r="I128" s="15">
         <v>24.259319000000001</v>
       </c>
-      <c r="K128" s="11">
+      <c r="K128" s="10">
         <v>0.73864304615664533</v>
       </c>
-      <c r="L128" s="12">
+      <c r="L128" s="11">
         <v>4.811976E-8</v>
       </c>
-      <c r="M128" s="12">
+      <c r="M128" s="11">
         <v>6.5146160000000005E-8</v>
       </c>
-      <c r="N128" s="13">
+      <c r="N128" s="12">
         <v>23.844784000000001</v>
       </c>
-      <c r="P128" s="24">
+      <c r="P128" s="13">
         <v>0.73864361441017357</v>
       </c>
-      <c r="Q128" s="25">
+      <c r="Q128" s="14">
         <v>6.1637329999999996E-7</v>
       </c>
-      <c r="R128" s="25">
+      <c r="R128" s="14">
         <v>8.344671E-7</v>
       </c>
-      <c r="S128" s="26">
+      <c r="S128" s="15">
         <v>23.185037999999999</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>126</v>
+      <c r="A129" s="20">
+        <v>0.73864612205013702</v>
       </c>
       <c r="B129">
         <v>3.1240129999999998E-6</v>
@@ -15377,43 +15036,43 @@
       <c r="D129">
         <v>27.002987999999998</v>
       </c>
-      <c r="E129" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="11">
+      <c r="E129" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="10">
         <v>0.73864382788878546</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="11">
         <v>8.2985189999999999E-7</v>
       </c>
-      <c r="H129" s="12">
+      <c r="H129" s="11">
         <v>1.1234820000000001E-6</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="12">
         <v>24.276600999999999</v>
       </c>
-      <c r="K129" s="14">
+      <c r="K129" s="13">
         <v>0.73864387242524721</v>
       </c>
-      <c r="L129" s="15">
+      <c r="L129" s="14">
         <v>8.743884E-7</v>
       </c>
-      <c r="M129" s="15">
+      <c r="M129" s="14">
         <v>1.183777E-6</v>
       </c>
-      <c r="N129" s="16">
+      <c r="N129" s="15">
         <v>23.772494999999999</v>
       </c>
-      <c r="P129" s="21">
+      <c r="P129" s="10">
         <v>0.73864433278637942</v>
       </c>
-      <c r="Q129" s="22">
+      <c r="Q129" s="11">
         <v>1.334749E-6</v>
       </c>
-      <c r="R129" s="22">
+      <c r="R129" s="11">
         <v>1.807029E-6</v>
       </c>
-      <c r="S129" s="23">
+      <c r="S129" s="12">
         <v>23.683733</v>
       </c>
     </row>
@@ -15430,63 +15089,63 @@
         <f>MEDIAN(D120:D129)</f>
         <v>26.6445045</v>
       </c>
-      <c r="G130" s="15">
+      <c r="G130" s="14">
         <f>MEDIAN(G120:G129)</f>
         <v>8.6287385000000004E-7</v>
       </c>
-      <c r="H130" s="15">
+      <c r="H130" s="14">
         <f>MEDIAN(H120:H129)</f>
         <v>1.168188E-6</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="15">
         <f>MEDIAN(I120:I129)</f>
         <v>24.287214499999997</v>
       </c>
-      <c r="L130" s="15">
+      <c r="L130" s="14">
         <f>MEDIAN(L120:L129)</f>
         <v>1.6446529999999999E-6</v>
       </c>
-      <c r="M130" s="15">
+      <c r="M130" s="14">
         <f>MEDIAN(M120:M129)</f>
         <v>2.2265875E-6</v>
       </c>
-      <c r="N130" s="16">
+      <c r="N130" s="15">
         <f>MEDIAN(N120:N129)</f>
         <v>23.597026</v>
       </c>
-      <c r="Q130" s="17">
+      <c r="Q130" s="16">
         <f>MEDIAN(Q120:Q129)</f>
         <v>1.6840615E-6</v>
       </c>
-      <c r="R130" s="17">
+      <c r="R130" s="16">
         <f>MEDIAN(R120:R129)</f>
         <v>2.2799400000000002E-6</v>
       </c>
-      <c r="S130" s="18">
+      <c r="S130" s="17">
         <f>MEDIAN(S120:S129)</f>
         <v>23.538316500000001</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B132">
         <v>10</v>
       </c>
-      <c r="E132" s="10" t="s">
-        <v>25</v>
+      <c r="E132" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>127</v>
+      <c r="A133" s="20">
+        <v>0.73864315525195401</v>
       </c>
       <c r="B133">
         <v>1.5721509999999999E-7</v>
@@ -15497,49 +15156,49 @@
       <c r="D133">
         <v>24.991126000000001</v>
       </c>
-      <c r="E133" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" s="11">
+      <c r="E133" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="10">
         <v>0.73864252068919023</v>
       </c>
-      <c r="G133" s="12">
+      <c r="G133" s="11">
         <v>4.7734769999999999E-7</v>
       </c>
-      <c r="H133" s="12">
+      <c r="H133" s="11">
         <v>6.4624950000000005E-7</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="12">
         <v>24.278313000000001</v>
       </c>
-      <c r="K133" s="14">
+      <c r="K133" s="13">
         <v>0.73864342138591677</v>
       </c>
-      <c r="L133" s="15">
+      <c r="L133" s="14">
         <v>4.2334900000000001E-7</v>
       </c>
-      <c r="M133" s="15">
+      <c r="M133" s="14">
         <v>5.7314430000000004E-7</v>
       </c>
-      <c r="N133" s="16">
+      <c r="N133" s="15">
         <v>23.586618000000001</v>
       </c>
-      <c r="P133" s="21">
+      <c r="P133" s="10">
         <v>0.73864437588839094</v>
       </c>
-      <c r="Q133" s="22">
+      <c r="Q133" s="11">
         <v>1.3778519999999999E-6</v>
       </c>
-      <c r="R133" s="22">
+      <c r="R133" s="11">
         <v>1.8653820000000001E-6</v>
       </c>
-      <c r="S133" s="23">
+      <c r="S133" s="12">
         <v>23.387687</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>128</v>
+      <c r="A134" s="20">
+        <v>0.73864446182895105</v>
       </c>
       <c r="B134">
         <v>1.4637920000000001E-6</v>
@@ -15550,49 +15209,49 @@
       <c r="D134">
         <v>25.709857</v>
       </c>
-      <c r="E134" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="14">
+      <c r="E134" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="13">
         <v>0.73864391619453551</v>
       </c>
-      <c r="G134" s="15">
+      <c r="G134" s="14">
         <v>9.1815759999999999E-7</v>
       </c>
-      <c r="H134" s="15">
+      <c r="H134" s="14">
         <v>1.2430330000000001E-6</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="15">
         <v>24.536645</v>
       </c>
-      <c r="K134" s="11">
+      <c r="K134" s="10">
         <v>0.73864423581284644</v>
       </c>
-      <c r="L134" s="12">
+      <c r="L134" s="11">
         <v>1.237776E-6</v>
       </c>
-      <c r="M134" s="12">
+      <c r="M134" s="11">
         <v>1.675743E-6</v>
       </c>
-      <c r="N134" s="13">
+      <c r="N134" s="12">
         <v>23.605498999999998</v>
       </c>
-      <c r="P134" s="24">
+      <c r="P134" s="13">
         <v>0.73864458442009862</v>
       </c>
-      <c r="Q134" s="25">
+      <c r="Q134" s="14">
         <v>1.5863829999999999E-6</v>
       </c>
-      <c r="R134" s="25">
+      <c r="R134" s="14">
         <v>2.1477000000000002E-6</v>
       </c>
-      <c r="S134" s="26">
+      <c r="S134" s="15">
         <v>24.61364</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>129</v>
+      <c r="A135" s="20">
+        <v>0.73864488356161095</v>
       </c>
       <c r="B135">
         <v>1.885525E-6</v>
@@ -15603,49 +15262,49 @@
       <c r="D135">
         <v>24.501156999999999</v>
       </c>
-      <c r="E135" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="11">
+      <c r="E135" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="10">
         <v>0.73864396303232371</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="11">
         <v>9.6499539999999991E-7</v>
       </c>
-      <c r="H135" s="12">
+      <c r="H135" s="11">
         <v>1.306444E-6</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="12">
         <v>24.317145</v>
       </c>
-      <c r="K135" s="14">
+      <c r="K135" s="13">
         <v>0.73864322439134966</v>
       </c>
-      <c r="L135" s="15">
+      <c r="L135" s="14">
         <v>2.263545E-7</v>
       </c>
-      <c r="M135" s="15">
+      <c r="M135" s="14">
         <v>3.0644640000000001E-7</v>
       </c>
-      <c r="N135" s="16">
+      <c r="N135" s="15">
         <v>23.717185000000001</v>
       </c>
-      <c r="P135" s="21">
+      <c r="P135" s="10">
         <v>0.73864353379629444</v>
       </c>
-      <c r="Q135" s="22">
+      <c r="Q135" s="11">
         <v>5.3575940000000002E-7</v>
       </c>
-      <c r="R135" s="22">
+      <c r="R135" s="11">
         <v>7.2532930000000005E-7</v>
       </c>
-      <c r="S135" s="23">
+      <c r="S135" s="12">
         <v>23.195401</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>130</v>
+      <c r="A136" s="20">
+        <v>0.73864381685331604</v>
       </c>
       <c r="B136">
         <v>8.1881639999999999E-7</v>
@@ -15656,49 +15315,49 @@
       <c r="D136">
         <v>23.86713</v>
       </c>
-      <c r="E136" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="14">
+      <c r="E136" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="13">
         <v>0.73864241394935193</v>
       </c>
-      <c r="G136" s="15">
+      <c r="G136" s="14">
         <v>5.8408750000000002E-7</v>
       </c>
-      <c r="H136" s="15">
+      <c r="H136" s="14">
         <v>7.9075760000000005E-7</v>
       </c>
-      <c r="I136" s="16">
+      <c r="I136" s="15">
         <v>24.205352000000001</v>
       </c>
-      <c r="K136" s="11">
+      <c r="K136" s="10">
         <v>0.73864441023899918</v>
       </c>
-      <c r="L136" s="12">
+      <c r="L136" s="11">
         <v>1.4122020000000001E-6</v>
       </c>
-      <c r="M136" s="12">
+      <c r="M136" s="11">
         <v>1.9118870000000001E-6</v>
       </c>
-      <c r="N136" s="13">
+      <c r="N136" s="12">
         <v>23.695098999999999</v>
       </c>
-      <c r="P136" s="24">
+      <c r="P136" s="13">
         <v>0.73864318977928711</v>
       </c>
-      <c r="Q136" s="25">
+      <c r="Q136" s="14">
         <v>1.9174239999999999E-7</v>
       </c>
-      <c r="R136" s="25">
+      <c r="R136" s="14">
         <v>2.595874E-7</v>
       </c>
-      <c r="S136" s="26">
+      <c r="S136" s="15">
         <v>23.065740000000002</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>131</v>
+      <c r="A137" s="20">
+        <v>0.73864276499386705</v>
       </c>
       <c r="B137">
         <v>2.33043E-7</v>
@@ -15709,49 +15368,49 @@
       <c r="D137">
         <v>23.518125000000001</v>
       </c>
-      <c r="E137" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="11">
+      <c r="E137" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="10">
         <v>0.73864404711911291</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="11">
         <v>1.049082E-6</v>
       </c>
-      <c r="H137" s="12">
+      <c r="H137" s="11">
         <v>1.4202829999999999E-6</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="12">
         <v>24.446073999999999</v>
       </c>
-      <c r="K137" s="14">
+      <c r="K137" s="13">
         <v>0.73864286289842063</v>
       </c>
-      <c r="L137" s="15">
+      <c r="L137" s="14">
         <v>1.3513849999999999E-7</v>
       </c>
-      <c r="M137" s="15">
+      <c r="M137" s="14">
         <v>1.829551E-7</v>
       </c>
-      <c r="N137" s="16">
+      <c r="N137" s="15">
         <v>24.083227999999998</v>
       </c>
-      <c r="P137" s="21">
+      <c r="P137" s="10">
         <v>0.73864487687518354</v>
       </c>
-      <c r="Q137" s="22">
+      <c r="Q137" s="11">
         <v>1.8788379999999999E-6</v>
       </c>
-      <c r="R137" s="22">
+      <c r="R137" s="11">
         <v>2.543635E-6</v>
       </c>
-      <c r="S137" s="23">
+      <c r="S137" s="12">
         <v>23.171925000000002</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>132</v>
+      <c r="A138" s="20">
+        <v>0.73864376039758795</v>
       </c>
       <c r="B138">
         <v>7.6236069999999995E-7</v>
@@ -15762,49 +15421,49 @@
       <c r="D138">
         <v>24.005981999999999</v>
       </c>
-      <c r="E138" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138" s="14">
+      <c r="E138" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="13">
         <v>0.73864281135825682</v>
       </c>
-      <c r="G138" s="15">
+      <c r="G138" s="14">
         <v>1.8667860000000001E-7</v>
       </c>
-      <c r="H138" s="15">
+      <c r="H138" s="14">
         <v>2.5273190000000002E-7</v>
       </c>
-      <c r="I138" s="16">
+      <c r="I138" s="15">
         <v>28.940180000000002</v>
       </c>
-      <c r="K138" s="11">
+      <c r="K138" s="10">
         <v>0.73864295757470955</v>
       </c>
-      <c r="L138" s="12">
+      <c r="L138" s="11">
         <v>4.046218E-8</v>
       </c>
-      <c r="M138" s="12">
+      <c r="M138" s="11">
         <v>5.4779080000000003E-8</v>
       </c>
-      <c r="N138" s="13">
+      <c r="N138" s="12">
         <v>23.881903000000001</v>
       </c>
-      <c r="P138" s="24">
+      <c r="P138" s="13">
         <v>0.73864433335276569</v>
       </c>
-      <c r="Q138" s="25">
+      <c r="Q138" s="14">
         <v>1.335316E-6</v>
       </c>
-      <c r="R138" s="25">
+      <c r="R138" s="14">
         <v>1.807796E-6</v>
       </c>
-      <c r="S138" s="26">
+      <c r="S138" s="15">
         <v>23.160574</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>133</v>
+      <c r="A139" s="20">
+        <v>0.73864399469535902</v>
       </c>
       <c r="B139">
         <v>9.9665849999999994E-7</v>
@@ -15815,49 +15474,49 @@
       <c r="D139">
         <v>31.534818000000001</v>
       </c>
-      <c r="E139" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" s="11">
+      <c r="E139" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="10">
         <v>0.73864284245052325</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G139" s="11">
         <v>1.555864E-7</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H139" s="11">
         <v>2.106381E-7</v>
       </c>
-      <c r="I139" s="13">
+      <c r="I139" s="12">
         <v>24.549164999999999</v>
       </c>
-      <c r="K139" s="14">
+      <c r="K139" s="13">
         <v>0.73864252062429725</v>
       </c>
-      <c r="L139" s="15">
+      <c r="L139" s="14">
         <v>4.7741260000000005E-7</v>
       </c>
-      <c r="M139" s="15">
+      <c r="M139" s="14">
         <v>6.4633739999999999E-7</v>
       </c>
-      <c r="N139" s="16">
+      <c r="N139" s="15">
         <v>23.857420999999999</v>
       </c>
-      <c r="P139" s="21">
+      <c r="P139" s="10">
         <v>0.73864341212867135</v>
       </c>
-      <c r="Q139" s="22">
+      <c r="Q139" s="11">
         <v>4.1409179999999999E-7</v>
       </c>
-      <c r="R139" s="22">
+      <c r="R139" s="11">
         <v>5.6061149999999998E-7</v>
       </c>
-      <c r="S139" s="23">
+      <c r="S139" s="12">
         <v>23.210597</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>134</v>
+      <c r="A140" s="20">
+        <v>0.73864393469300804</v>
       </c>
       <c r="B140">
         <v>9.3665609999999996E-7</v>
@@ -15868,49 +15527,49 @@
       <c r="D140">
         <v>25.743364</v>
       </c>
-      <c r="E140" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140" s="14">
+      <c r="E140" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="13">
         <v>0.73864281490477757</v>
       </c>
-      <c r="G140" s="15">
+      <c r="G140" s="14">
         <v>1.8313209999999999E-7</v>
       </c>
-      <c r="H140" s="15">
+      <c r="H140" s="14">
         <v>2.4793049999999998E-7</v>
       </c>
-      <c r="I140" s="16">
+      <c r="I140" s="15">
         <v>24.767116999999999</v>
       </c>
-      <c r="K140" s="11">
+      <c r="K140" s="10">
         <v>0.73864479895670854</v>
       </c>
-      <c r="L140" s="12">
+      <c r="L140" s="11">
         <v>1.8009199999999999E-6</v>
       </c>
-      <c r="M140" s="12">
+      <c r="M140" s="11">
         <v>2.438146E-6</v>
       </c>
-      <c r="N140" s="13">
+      <c r="N140" s="12">
         <v>23.941447</v>
       </c>
-      <c r="P140" s="24">
+      <c r="P140" s="13">
         <v>0.73864359561271231</v>
       </c>
-      <c r="Q140" s="25">
+      <c r="Q140" s="14">
         <v>5.9757579999999999E-7</v>
       </c>
-      <c r="R140" s="25">
+      <c r="R140" s="14">
         <v>8.0901849999999999E-7</v>
       </c>
-      <c r="S140" s="26">
+      <c r="S140" s="15">
         <v>23.161560000000001</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>135</v>
+      <c r="A141" s="20">
+        <v>0.73864302158915596</v>
       </c>
       <c r="B141">
         <v>2.3552270000000001E-8</v>
@@ -15921,49 +15580,49 @@
       <c r="D141">
         <v>25.942211</v>
       </c>
-      <c r="E141" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141" s="11">
+      <c r="E141" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="10">
         <v>0.73864398326572289</v>
       </c>
-      <c r="G141" s="12">
+      <c r="G141" s="11">
         <v>9.8522879999999998E-7</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="11">
         <v>1.333836E-6</v>
       </c>
-      <c r="I141" s="13">
+      <c r="I141" s="12">
         <v>25.471018000000001</v>
       </c>
-      <c r="K141" s="14">
+      <c r="K141" s="13">
         <v>0.73864341491839525</v>
       </c>
-      <c r="L141" s="15">
+      <c r="L141" s="14">
         <v>4.168815E-7</v>
       </c>
-      <c r="M141" s="15">
+      <c r="M141" s="14">
         <v>5.6438840000000001E-7</v>
       </c>
-      <c r="N141" s="16">
+      <c r="N141" s="15">
         <v>23.953529</v>
       </c>
-      <c r="P141" s="21">
+      <c r="P141" s="10">
         <v>0.73864286250095745</v>
       </c>
-      <c r="Q141" s="22">
+      <c r="Q141" s="11">
         <v>1.3553590000000001E-7</v>
       </c>
-      <c r="R141" s="22">
+      <c r="R141" s="11">
         <v>1.834932E-7</v>
       </c>
-      <c r="S141" s="23">
+      <c r="S141" s="12">
         <v>23.570046999999999</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>136</v>
+      <c r="A142" s="20">
+        <v>0.73864367782250395</v>
       </c>
       <c r="B142">
         <v>6.797856E-7</v>
@@ -15974,43 +15633,43 @@
       <c r="D142">
         <v>23.388477000000002</v>
       </c>
-      <c r="E142" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142" s="14">
+      <c r="E142" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="13">
         <v>0.7386430625874546</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G142" s="14">
         <v>6.4550559999999999E-8</v>
       </c>
-      <c r="H142" s="15">
+      <c r="H142" s="14">
         <v>8.7390749999999998E-8</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="15">
         <v>25.171467</v>
       </c>
-      <c r="K142" s="11">
+      <c r="K142" s="10">
         <v>0.73864331888237555</v>
       </c>
-      <c r="L142" s="12">
+      <c r="L142" s="11">
         <v>3.208455E-7</v>
       </c>
-      <c r="M142" s="12">
+      <c r="M142" s="11">
         <v>4.3437149999999998E-7</v>
       </c>
-      <c r="N142" s="13">
+      <c r="N142" s="12">
         <v>23.280643999999999</v>
       </c>
-      <c r="P142" s="24">
+      <c r="P142" s="13">
         <v>0.73864299832355629</v>
       </c>
-      <c r="Q142" s="25">
+      <c r="Q142" s="14">
         <v>2.866661E-10</v>
       </c>
-      <c r="R142" s="25">
+      <c r="R142" s="14">
         <v>3.8809839999999999E-10</v>
       </c>
-      <c r="S142" s="26">
+      <c r="S142" s="15">
         <v>22.956486999999999</v>
       </c>
     </row>
@@ -16027,39 +15686,39 @@
         <f>MEDIAN(D133:D142)</f>
         <v>24.7461415</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="14">
         <f>MEDIAN(G133:G142)</f>
         <v>5.3071759999999995E-7</v>
       </c>
-      <c r="H143" s="15">
+      <c r="H143" s="14">
         <f>MEDIAN(H133:H142)</f>
         <v>7.1850355000000005E-7</v>
       </c>
-      <c r="I143" s="16">
+      <c r="I143" s="15">
         <f>MEDIAN(I133:I142)</f>
         <v>24.542904999999998</v>
       </c>
-      <c r="L143" s="15">
+      <c r="L143" s="14">
         <f>MEDIAN(L133:L142)</f>
         <v>4.2011525000000001E-7</v>
       </c>
-      <c r="M143" s="15">
+      <c r="M143" s="14">
         <f>MEDIAN(M133:M142)</f>
         <v>5.6876635000000008E-7</v>
       </c>
-      <c r="N143" s="16">
+      <c r="N143" s="15">
         <f>MEDIAN(N133:N142)</f>
         <v>23.787303000000001</v>
       </c>
-      <c r="Q143" s="17">
+      <c r="Q143" s="16">
         <f>MEDIAN(Q133:Q142)</f>
         <v>5.6666760000000001E-7</v>
       </c>
-      <c r="R143" s="17">
+      <c r="R143" s="16">
         <f>MEDIAN(R133:R142)</f>
         <v>7.6717390000000002E-7</v>
       </c>
-      <c r="S143" s="18">
+      <c r="S143" s="17">
         <f>MEDIAN(S133:S142)</f>
         <v>23.183663000000003</v>
       </c>
@@ -16069,7 +15728,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L12 Q12" formulaRange="1"/>
+    <ignoredError sqref="L12 Q12 B26 B39 B52 B65 B78" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
